--- a/BudgetTemplate_StartMon_Jan.xlsx
+++ b/BudgetTemplate_StartMon_Jan.xlsx
@@ -1747,7 +1747,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -1828,6 +1827,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2240,23 +2240,23 @@
       <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="166"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="165"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -2357,20 +2357,20 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="167"/>
+      <c r="F10" s="166"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="168">
+      <c r="M10" s="167">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="169">
+      <c r="N10" s="168">
         <f>+M10*12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="168">
+      <c r="O10" s="167">
         <f>SUM(O7:O9)</f>
         <v>0</v>
       </c>
@@ -2383,23 +2383,23 @@
       <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="175"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="174"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -3069,20 +3069,20 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="E42" s="177" t="s">
+      <c r="E42" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="178"/>
+      <c r="F42" s="177"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="179">
+      <c r="M42" s="178">
         <f>M24+M31+M40</f>
         <v>0</v>
       </c>
-      <c r="N42" s="180">
+      <c r="N42" s="179">
         <f>N24+N31+N40</f>
         <v>0</v>
       </c>
-      <c r="O42" s="179">
+      <c r="O42" s="178">
         <f>O24+O31+O40</f>
         <v>0</v>
       </c>
@@ -3144,7 +3144,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,8 +3208,8 @@
       <c r="A6" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="210" t="s">
+      <c r="B6" s="208"/>
+      <c r="C6" s="209" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="4"/>
@@ -3320,35 +3320,35 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="97"/>
       <c r="I8" s="97"/>
       <c r="J8" s="97"/>
       <c r="K8" s="97"/>
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="139"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="138"/>
       <c r="P8" s="98"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="139"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="139"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
       <c r="AB8" s="98"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -3423,50 +3423,50 @@
         <f>'Paycheck Analysis'!O45</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="107">
-        <v>0</v>
-      </c>
-      <c r="R10" s="129">
+      <c r="Q10" s="210">
+        <v>0</v>
+      </c>
+      <c r="R10" s="144">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="91">
+      <c r="S10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="T10" s="91">
+      <c r="T10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="91">
+      <c r="U10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="V10" s="91">
+      <c r="V10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="91">
+      <c r="W10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="X10" s="91">
+      <c r="X10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="91">
+      <c r="Y10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="91">
+      <c r="Z10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="91">
+      <c r="AA10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="130">
+      <c r="AB10" s="159">
         <f>N10</f>
         <v>0</v>
       </c>
@@ -3626,51 +3626,51 @@
         <f>IF(C5 = "DAILY", O14/365, IF(C5 = "WEEKLY", O14/52, IF(C5 = "BI-WEEKLY", O14/26, IF(C5 = "SEMI-MO", N14/2, IF(C5 = "MONTHLY", N14, IF(C5 = "ANNUAL", O14, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="107">
+      <c r="Q14" s="210">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="91">
+      <c r="R14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="S14" s="91">
+      <c r="S14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="T14" s="91">
+      <c r="T14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="U14" s="91">
+      <c r="U14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="V14" s="91">
+      <c r="V14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="91">
+      <c r="W14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="X14" s="91">
+      <c r="X14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="91">
+      <c r="Y14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="91">
+      <c r="Z14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="91">
+      <c r="AA14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="108">
+      <c r="AB14" s="123">
         <f>N14</f>
         <v>0</v>
       </c>
@@ -3703,51 +3703,51 @@
         <f>IF(C5 = "DAILY", O15/365, IF(C5 = "WEEKLY", O15/52, IF(C5 = "BI-WEEKLY", O15/26, IF(C5 = "SEMI-MO", N15/2, IF(C5 = "MONTHLY", N15, IF(C5 = "ANNUAL", O15, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="107">
+      <c r="Q15" s="210">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="R15" s="91">
+      <c r="R15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="S15" s="91">
+      <c r="S15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="T15" s="91">
+      <c r="T15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="U15" s="91">
+      <c r="U15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="V15" s="91">
+      <c r="V15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="91">
+      <c r="W15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="X15" s="91">
+      <c r="X15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="91">
+      <c r="Y15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="91">
+      <c r="Z15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="91">
+      <c r="AA15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="108">
+      <c r="AB15" s="123">
         <f>N15</f>
         <v>0</v>
       </c>
@@ -3979,34 +3979,34 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="136"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="137"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="136"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F23" s="152" t="s">
+      <c r="F23" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="152"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="83"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="138">
+      <c r="N23" s="137">
         <f>N11+N21</f>
         <v>0</v>
       </c>
-      <c r="O23" s="139">
+      <c r="O23" s="138">
         <f>O11+O21</f>
         <v>0</v>
       </c>
@@ -4014,47 +4014,47 @@
         <f>P11+P21</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="138">
+      <c r="Q23" s="137">
         <f>Q11+Q16+Q21</f>
         <v>0</v>
       </c>
-      <c r="R23" s="139">
+      <c r="R23" s="138">
         <f t="shared" ref="R23:AB23" si="5">R11+R16+R21</f>
         <v>0</v>
       </c>
-      <c r="S23" s="139">
+      <c r="S23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="139">
+      <c r="T23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="139">
+      <c r="U23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V23" s="139">
+      <c r="V23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W23" s="139">
+      <c r="W23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X23" s="139">
+      <c r="X23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="139">
+      <c r="Y23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="139">
+      <c r="Z23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="139">
+      <c r="AA23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4084,36 +4084,36 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="155"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="154"/>
-      <c r="X25" s="154"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="156"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="153"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="155"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -4176,51 +4176,51 @@
         <v>0</v>
       </c>
       <c r="Q27" s="99">
-        <f t="shared" ref="Q27:Q37" si="6">N27</f>
+        <f t="shared" ref="Q27:Q36" si="6">N27</f>
         <v>0</v>
       </c>
       <c r="R27" s="100">
-        <f t="shared" ref="R27:R37" si="7">N27</f>
+        <f t="shared" ref="R27:R36" si="7">N27</f>
         <v>0</v>
       </c>
       <c r="S27" s="100">
-        <f t="shared" ref="S27:S37" si="8">N27</f>
+        <f t="shared" ref="S27:S36" si="8">N27</f>
         <v>0</v>
       </c>
       <c r="T27" s="100">
-        <f t="shared" ref="T27:T37" si="9">N27</f>
+        <f t="shared" ref="T27:T36" si="9">N27</f>
         <v>0</v>
       </c>
       <c r="U27" s="100">
-        <f t="shared" ref="U27:U37" si="10">N27</f>
+        <f t="shared" ref="U27:U36" si="10">N27</f>
         <v>0</v>
       </c>
       <c r="V27" s="100">
-        <f t="shared" ref="V27:V37" si="11">N27</f>
+        <f t="shared" ref="V27:V36" si="11">N27</f>
         <v>0</v>
       </c>
       <c r="W27" s="100">
-        <f t="shared" ref="W27:W37" si="12">N27</f>
+        <f t="shared" ref="W27:W36" si="12">N27</f>
         <v>0</v>
       </c>
       <c r="X27" s="100">
-        <f t="shared" ref="X27:X37" si="13">N27</f>
+        <f t="shared" ref="X27:X36" si="13">N27</f>
         <v>0</v>
       </c>
       <c r="Y27" s="100">
-        <f t="shared" ref="Y27:Y37" si="14">N27</f>
+        <f t="shared" ref="Y27:Y36" si="14">N27</f>
         <v>0</v>
       </c>
       <c r="Z27" s="100">
-        <f t="shared" ref="Z27:Z37" si="15">N27</f>
+        <f t="shared" ref="Z27:Z36" si="15">N27</f>
         <v>0</v>
       </c>
       <c r="AA27" s="100">
-        <f t="shared" ref="AA27:AA37" si="16">N27</f>
+        <f t="shared" ref="AA27:AA36" si="16">N27</f>
         <v>0</v>
       </c>
       <c r="AB27" s="123">
-        <f t="shared" ref="AB27:AB37" si="17">N27</f>
+        <f t="shared" ref="AB27:AB36" si="17">N27</f>
         <v>0</v>
       </c>
     </row>
@@ -4868,51 +4868,51 @@
         <f>IF(C5 = "DAILY", O36/365, IF(C5 = "WEEKLY", O36/52, IF(C5 = "BI-WEEKLY", O36/26, IF(C5 = "SEMI-MO", N36/2, IF(C5 = "MONTHLY", N36, IF(C5 = "ANNUAL", O36, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="140">
+      <c r="Q36" s="139">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R36" s="141">
+      <c r="R36" s="140">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S36" s="141">
+      <c r="S36" s="140">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T36" s="141">
+      <c r="T36" s="140">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U36" s="141">
+      <c r="U36" s="140">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V36" s="141">
+      <c r="V36" s="140">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W36" s="141">
+      <c r="W36" s="140">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X36" s="141">
+      <c r="X36" s="140">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="141">
+      <c r="Y36" s="140">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="141">
+      <c r="Z36" s="140">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="141">
+      <c r="AA36" s="140">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="160">
+      <c r="AB36" s="159">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -5087,51 +5087,51 @@
         <v>0</v>
       </c>
       <c r="Q40" s="99">
-        <f t="shared" ref="Q40:Q50" si="23">N40</f>
+        <f t="shared" ref="Q40:Q49" si="23">N40</f>
         <v>0</v>
       </c>
       <c r="R40" s="100">
-        <f t="shared" ref="R40:R50" si="24">N40</f>
+        <f t="shared" ref="R40:R49" si="24">N40</f>
         <v>0</v>
       </c>
       <c r="S40" s="100">
-        <f t="shared" ref="S40:S50" si="25">N40</f>
+        <f t="shared" ref="S40:S49" si="25">N40</f>
         <v>0</v>
       </c>
       <c r="T40" s="100">
-        <f t="shared" ref="T40:T50" si="26">N40</f>
+        <f t="shared" ref="T40:T49" si="26">N40</f>
         <v>0</v>
       </c>
       <c r="U40" s="100">
-        <f t="shared" ref="U40:U50" si="27">N40</f>
+        <f t="shared" ref="U40:U49" si="27">N40</f>
         <v>0</v>
       </c>
       <c r="V40" s="100">
-        <f t="shared" ref="V40:V50" si="28">N40</f>
+        <f t="shared" ref="V40:V49" si="28">N40</f>
         <v>0</v>
       </c>
       <c r="W40" s="100">
-        <f t="shared" ref="W40:W50" si="29">N40</f>
+        <f t="shared" ref="W40:W49" si="29">N40</f>
         <v>0</v>
       </c>
       <c r="X40" s="100">
-        <f t="shared" ref="X40:X50" si="30">N40</f>
+        <f t="shared" ref="X40:X49" si="30">N40</f>
         <v>0</v>
       </c>
       <c r="Y40" s="100">
-        <f t="shared" ref="Y40:Y50" si="31">N40</f>
+        <f t="shared" ref="Y40:Y49" si="31">N40</f>
         <v>0</v>
       </c>
       <c r="Z40" s="100">
-        <f t="shared" ref="Z40:Z50" si="32">N40</f>
+        <f t="shared" ref="Z40:Z49" si="32">N40</f>
         <v>0</v>
       </c>
       <c r="AA40" s="100">
-        <f t="shared" ref="AA40:AA50" si="33">N40</f>
+        <f t="shared" ref="AA40:AA49" si="33">N40</f>
         <v>0</v>
       </c>
       <c r="AB40" s="123">
-        <f t="shared" ref="AB40:AB50" si="34">N40</f>
+        <f t="shared" ref="AB40:AB49" si="34">N40</f>
         <v>0</v>
       </c>
     </row>
@@ -5797,51 +5797,51 @@
         <f>IF(C5 = "DAILY", O49/365, IF(C5 = "WEEKLY", O49/52, IF(C5 = "BI-WEEKLY", O49/26, IF(C5 = "SEMI-MO", N49/2, IF(C5 = "MONTHLY", N49, IF(C5 = "ANNUAL", O49, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="140">
+      <c r="Q49" s="139">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="R49" s="141">
+      <c r="R49" s="140">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="S49" s="141">
+      <c r="S49" s="140">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="T49" s="141">
+      <c r="T49" s="140">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U49" s="141">
+      <c r="U49" s="140">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="V49" s="141">
+      <c r="V49" s="140">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="W49" s="141">
+      <c r="W49" s="140">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="X49" s="141">
+      <c r="X49" s="140">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="141">
+      <c r="Y49" s="140">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="141">
+      <c r="Z49" s="140">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="141">
+      <c r="AA49" s="140">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="160">
+      <c r="AB49" s="159">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -6016,51 +6016,51 @@
         <v>0</v>
       </c>
       <c r="Q53" s="99">
-        <f t="shared" ref="Q53:Q58" si="38">N53</f>
+        <f t="shared" ref="Q53:Q57" si="38">N53</f>
         <v>0</v>
       </c>
       <c r="R53" s="100">
-        <f t="shared" ref="R53:R58" si="39">N53</f>
+        <f t="shared" ref="R53:R57" si="39">N53</f>
         <v>0</v>
       </c>
       <c r="S53" s="100">
-        <f t="shared" ref="S53:S58" si="40">N53</f>
+        <f t="shared" ref="S53:S57" si="40">N53</f>
         <v>0</v>
       </c>
       <c r="T53" s="100">
-        <f t="shared" ref="T53:T58" si="41">N53</f>
+        <f t="shared" ref="T53:T57" si="41">N53</f>
         <v>0</v>
       </c>
       <c r="U53" s="100">
-        <f t="shared" ref="U53:U58" si="42">N53</f>
+        <f t="shared" ref="U53:U57" si="42">N53</f>
         <v>0</v>
       </c>
       <c r="V53" s="100">
-        <f t="shared" ref="V53:V58" si="43">N53</f>
+        <f t="shared" ref="V53:V57" si="43">N53</f>
         <v>0</v>
       </c>
       <c r="W53" s="100">
-        <f t="shared" ref="W53:W58" si="44">N53</f>
+        <f t="shared" ref="W53:W57" si="44">N53</f>
         <v>0</v>
       </c>
       <c r="X53" s="100">
-        <f t="shared" ref="X53:X58" si="45">N53</f>
+        <f t="shared" ref="X53:X57" si="45">N53</f>
         <v>0</v>
       </c>
       <c r="Y53" s="100">
-        <f t="shared" ref="Y53:Y58" si="46">N53</f>
+        <f t="shared" ref="Y53:Y57" si="46">N53</f>
         <v>0</v>
       </c>
       <c r="Z53" s="100">
-        <f t="shared" ref="Z53:Z58" si="47">N53</f>
+        <f t="shared" ref="Z53:Z57" si="47">N53</f>
         <v>0</v>
       </c>
       <c r="AA53" s="100">
-        <f t="shared" ref="AA53:AA58" si="48">N53</f>
+        <f t="shared" ref="AA53:AA57" si="48">N53</f>
         <v>0</v>
       </c>
       <c r="AB53" s="123">
-        <f t="shared" ref="AB53:AB58" si="49">N53</f>
+        <f t="shared" ref="AB53:AB57" si="49">N53</f>
         <v>0</v>
       </c>
     </row>
@@ -6331,51 +6331,51 @@
         <f>IF(C5 = "DAILY", H57, IF(C5 = "WEEKLY", I57, IF(C5 = "BI-WEEKLY", J57, IF(C5 = "SEMI-MO", K57, IF(C5 = "MONTHLY", L57, IF(C5 = "ANNUAL", M57, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="140">
+      <c r="Q57" s="139">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="R57" s="141">
+      <c r="R57" s="140">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="S57" s="141">
+      <c r="S57" s="140">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="T57" s="141">
+      <c r="T57" s="140">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="U57" s="141">
+      <c r="U57" s="140">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="V57" s="141">
+      <c r="V57" s="140">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="W57" s="141">
+      <c r="W57" s="140">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="X57" s="141">
+      <c r="X57" s="140">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Y57" s="141">
+      <c r="Y57" s="140">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="141">
+      <c r="Z57" s="140">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AA57" s="141">
+      <c r="AA57" s="140">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AB57" s="160">
+      <c r="AB57" s="159">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
@@ -6548,51 +6548,51 @@
         <v>0</v>
       </c>
       <c r="Q61" s="99">
-        <f t="shared" ref="Q61:Q71" si="51">N61</f>
+        <f t="shared" ref="Q61:Q70" si="51">N61</f>
         <v>0</v>
       </c>
       <c r="R61" s="100">
-        <f t="shared" ref="R61:R71" si="52">N61</f>
+        <f t="shared" ref="R61:R70" si="52">N61</f>
         <v>0</v>
       </c>
       <c r="S61" s="100">
-        <f t="shared" ref="S61:S71" si="53">N61</f>
+        <f t="shared" ref="S61:S70" si="53">N61</f>
         <v>0</v>
       </c>
       <c r="T61" s="100">
-        <f t="shared" ref="T61:T71" si="54">N61</f>
+        <f t="shared" ref="T61:T70" si="54">N61</f>
         <v>0</v>
       </c>
       <c r="U61" s="100">
-        <f t="shared" ref="U61:U71" si="55">N61</f>
+        <f t="shared" ref="U61:U70" si="55">N61</f>
         <v>0</v>
       </c>
       <c r="V61" s="100">
-        <f t="shared" ref="V61:V71" si="56">N61</f>
+        <f t="shared" ref="V61:V70" si="56">N61</f>
         <v>0</v>
       </c>
       <c r="W61" s="100">
-        <f t="shared" ref="W61:W71" si="57">N61</f>
+        <f t="shared" ref="W61:W70" si="57">N61</f>
         <v>0</v>
       </c>
       <c r="X61" s="100">
-        <f t="shared" ref="X61:X71" si="58">N61</f>
+        <f t="shared" ref="X61:X70" si="58">N61</f>
         <v>0</v>
       </c>
       <c r="Y61" s="100">
-        <f t="shared" ref="Y61:Y71" si="59">N61</f>
+        <f t="shared" ref="Y61:Y70" si="59">N61</f>
         <v>0</v>
       </c>
       <c r="Z61" s="100">
-        <f t="shared" ref="Z61:Z71" si="60">N61</f>
+        <f t="shared" ref="Z61:Z70" si="60">N61</f>
         <v>0</v>
       </c>
       <c r="AA61" s="100">
-        <f t="shared" ref="AA61:AA71" si="61">N61</f>
+        <f t="shared" ref="AA61:AA70" si="61">N61</f>
         <v>0</v>
       </c>
       <c r="AB61" s="123">
-        <f t="shared" ref="AB61:AB71" si="62">N61</f>
+        <f t="shared" ref="AB61:AB70" si="62">N61</f>
         <v>0</v>
       </c>
     </row>
@@ -7240,51 +7240,51 @@
         <f>IF(C5 = "DAILY", O70/365, IF(C5 = "WEEKLY", O70/52, IF(C5 = "BI-WEEKLY", O70/26, IF(C5 = "SEMI-MO", N70/2, IF(C5 = "MONTHLY", N70, IF(C5 = "ANNUAL", O70, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q70" s="140">
+      <c r="Q70" s="139">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="R70" s="141">
+      <c r="R70" s="140">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="S70" s="141">
+      <c r="S70" s="140">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="T70" s="141">
+      <c r="T70" s="140">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="U70" s="141">
+      <c r="U70" s="140">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="V70" s="141">
+      <c r="V70" s="140">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="W70" s="141">
+      <c r="W70" s="140">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="X70" s="141">
+      <c r="X70" s="140">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="Y70" s="141">
+      <c r="Y70" s="140">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="Z70" s="141">
+      <c r="Z70" s="140">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="AA70" s="141">
+      <c r="AA70" s="140">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="AB70" s="160">
+      <c r="AB70" s="159">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
@@ -7296,7 +7296,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="147" t="s">
+      <c r="G71" s="146" t="s">
         <v>30</v>
       </c>
       <c r="H71" s="20"/>
@@ -7380,118 +7380,118 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="132"/>
-      <c r="O72" s="133"/>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="132"/>
-      <c r="R72" s="133"/>
-      <c r="S72" s="133"/>
-      <c r="T72" s="133"/>
-      <c r="U72" s="133"/>
-      <c r="V72" s="133"/>
-      <c r="W72" s="133"/>
-      <c r="X72" s="133"/>
-      <c r="Y72" s="133"/>
-      <c r="Z72" s="133"/>
-      <c r="AA72" s="133"/>
-      <c r="AB72" s="134"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="132"/>
+      <c r="P72" s="133"/>
+      <c r="Q72" s="131"/>
+      <c r="R72" s="132"/>
+      <c r="S72" s="132"/>
+      <c r="T72" s="132"/>
+      <c r="U72" s="132"/>
+      <c r="V72" s="132"/>
+      <c r="W72" s="132"/>
+      <c r="X72" s="132"/>
+      <c r="Y72" s="132"/>
+      <c r="Z72" s="132"/>
+      <c r="AA72" s="132"/>
+      <c r="AB72" s="133"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F73" s="157" t="s">
+      <c r="F73" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="G73" s="158"/>
-      <c r="N73" s="142">
+      <c r="G73" s="157"/>
+      <c r="N73" s="141">
         <f t="shared" ref="N73:AB73" si="66">N37+N50+N58+N71</f>
         <v>0</v>
       </c>
-      <c r="O73" s="146">
+      <c r="O73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="P73" s="144">
+      <c r="P73" s="143">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="146">
+      <c r="Q73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="R73" s="146">
+      <c r="R73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S73" s="146">
+      <c r="S73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="T73" s="146">
+      <c r="T73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="U73" s="146">
+      <c r="U73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="V73" s="146">
+      <c r="V73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="W73" s="146">
+      <c r="W73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="X73" s="146">
+      <c r="X73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="Y73" s="146">
+      <c r="Y73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="Z73" s="146">
+      <c r="Z73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="146">
+      <c r="AA73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="AB73" s="146">
+      <c r="AB73" s="145">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AC73" s="20"/>
     </row>
     <row r="74" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="133"/>
-      <c r="B74" s="133"/>
-      <c r="C74" s="133"/>
-      <c r="D74" s="133"/>
-      <c r="E74" s="133"/>
-      <c r="F74" s="133"/>
-      <c r="G74" s="131"/>
-      <c r="H74" s="133"/>
-      <c r="I74" s="133"/>
-      <c r="J74" s="133"/>
-      <c r="K74" s="133"/>
-      <c r="L74" s="133"/>
-      <c r="M74" s="134"/>
-      <c r="N74" s="132"/>
-      <c r="O74" s="133"/>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="133"/>
-      <c r="R74" s="133"/>
-      <c r="S74" s="133"/>
-      <c r="T74" s="133"/>
-      <c r="U74" s="133"/>
-      <c r="V74" s="133"/>
-      <c r="W74" s="133"/>
-      <c r="X74" s="133"/>
-      <c r="Y74" s="133"/>
-      <c r="Z74" s="133"/>
-      <c r="AA74" s="133"/>
-      <c r="AB74" s="134"/>
+      <c r="A74" s="132"/>
+      <c r="B74" s="132"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="133"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="133"/>
+      <c r="Q74" s="132"/>
+      <c r="R74" s="132"/>
+      <c r="S74" s="132"/>
+      <c r="T74" s="132"/>
+      <c r="U74" s="132"/>
+      <c r="V74" s="132"/>
+      <c r="W74" s="132"/>
+      <c r="X74" s="132"/>
+      <c r="Y74" s="132"/>
+      <c r="Z74" s="132"/>
+      <c r="AA74" s="132"/>
+      <c r="AB74" s="133"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E75" s="116" t="s">
@@ -7499,86 +7499,86 @@
       </c>
       <c r="F75" s="116"/>
       <c r="G75" s="116"/>
-      <c r="H75" s="183"/>
+      <c r="H75" s="182"/>
       <c r="I75" s="91"/>
       <c r="J75" s="91"/>
       <c r="K75" s="91"/>
       <c r="L75" s="91"/>
-      <c r="M75" s="184"/>
-      <c r="N75" s="176">
+      <c r="M75" s="183"/>
+      <c r="N75" s="175">
         <f t="shared" ref="N75:AB75" si="67">N23-N73</f>
         <v>0</v>
       </c>
-      <c r="O75" s="176">
+      <c r="O75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="P75" s="195">
+      <c r="P75" s="194">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="176">
+      <c r="Q75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="R75" s="176">
+      <c r="R75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="S75" s="176">
+      <c r="S75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="T75" s="176">
+      <c r="T75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="U75" s="176">
+      <c r="U75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="V75" s="176">
+      <c r="V75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="W75" s="176">
+      <c r="W75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="X75" s="176">
+      <c r="X75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="176">
+      <c r="Y75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="Z75" s="176">
+      <c r="Z75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="176">
+      <c r="AA75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="AB75" s="176">
+      <c r="AB75" s="175">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AC75" s="20"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H76" s="182"/>
-      <c r="I76" s="182"/>
-      <c r="J76" s="182"/>
-      <c r="K76" s="182"/>
-      <c r="L76" s="182"/>
-      <c r="M76" s="182"/>
-      <c r="N76" s="182"/>
-      <c r="O76" s="182"/>
-      <c r="P76" s="182"/>
-      <c r="Q76" s="182"/>
-      <c r="R76" s="182"/>
+      <c r="H76" s="181"/>
+      <c r="I76" s="181"/>
+      <c r="J76" s="181"/>
+      <c r="K76" s="181"/>
+      <c r="L76" s="181"/>
+      <c r="M76" s="181"/>
+      <c r="N76" s="181"/>
+      <c r="O76" s="181"/>
+      <c r="P76" s="181"/>
+      <c r="Q76" s="181"/>
+      <c r="R76" s="181"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="87"/>
@@ -7705,7 +7705,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="K1" s="181"/>
+      <c r="K1" s="180"/>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
       <c r="N1" s="91"/>
@@ -7746,20 +7746,20 @@
         <v>80</v>
       </c>
       <c r="K3" s="91"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="188"/>
       <c r="N3" s="91"/>
       <c r="O3" s="91"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="189"/>
       <c r="R3" s="91"/>
       <c r="S3" s="91"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="189"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="188"/>
       <c r="V3" s="91"/>
       <c r="W3" s="91"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
@@ -7852,9 +7852,9 @@
       <c r="A8" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="209"/>
-      <c r="C8" s="210"/>
-      <c r="H8" s="192" t="s">
+      <c r="B8" s="208"/>
+      <c r="C8" s="209"/>
+      <c r="H8" s="191" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="121"/>
@@ -7875,51 +7875,51 @@
       <c r="Y8" s="91"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H9" s="186" t="str">
+      <c r="H9" s="185" t="str">
         <f>IF(C6, CONCATENATE("JAN ", C6), "JAN {?}")</f>
         <v>JAN 2020</v>
       </c>
-      <c r="I9" s="187" t="str">
+      <c r="I9" s="186" t="str">
         <f>IF(C6, CONCATENATE("FEB ",C6), "FEB {?}")</f>
         <v>FEB 2020</v>
       </c>
-      <c r="J9" s="187" t="str">
+      <c r="J9" s="186" t="str">
         <f>IF(C6, CONCATENATE("MAR ",C6), "MAR {?}")</f>
         <v>MAR 2020</v>
       </c>
-      <c r="K9" s="187" t="str">
+      <c r="K9" s="186" t="str">
         <f>IF(C6, CONCATENATE("APR ", C6), "APR {?}")</f>
         <v>APR 2020</v>
       </c>
-      <c r="L9" s="187" t="str">
+      <c r="L9" s="186" t="str">
         <f>IF(C6, CONCATENATE("MAY ",C6), "MAY {?}")</f>
         <v>MAY 2020</v>
       </c>
-      <c r="M9" s="187" t="str">
+      <c r="M9" s="186" t="str">
         <f>IF(C6, CONCATENATE("JUN ",C6), "JUN {?}")</f>
         <v>JUN 2020</v>
       </c>
-      <c r="N9" s="187" t="str">
+      <c r="N9" s="186" t="str">
         <f>IF(C6, CONCATENATE("JUL ",C6), "JUL {?}")</f>
         <v>JUL 2020</v>
       </c>
-      <c r="O9" s="187" t="str">
+      <c r="O9" s="186" t="str">
         <f>IF(C6, CONCATENATE("AUG ",C6), "AUG {?}")</f>
         <v>AUG 2020</v>
       </c>
-      <c r="P9" s="187" t="str">
+      <c r="P9" s="186" t="str">
         <f>IF(C6, CONCATENATE("SEP ",C6), "SEP {?}")</f>
         <v>SEP 2020</v>
       </c>
-      <c r="Q9" s="187" t="str">
+      <c r="Q9" s="186" t="str">
         <f>IF(C6, CONCATENATE("OCT ",C6), "OCT {?}")</f>
         <v>OCT 2020</v>
       </c>
-      <c r="R9" s="187" t="str">
+      <c r="R9" s="186" t="str">
         <f>IF(C6, CONCATENATE("NOV ",C6), "NOV {?}")</f>
         <v>NOV 2020</v>
       </c>
-      <c r="S9" s="188" t="str">
+      <c r="S9" s="187" t="str">
         <f>IF(C6, CONCATENATE("DEC ",C6), "DEC {?}")</f>
         <v>DEC 2020</v>
       </c>
@@ -7930,27 +7930,27 @@
       <c r="Y9" s="91"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="150"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="148"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="148"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="149"/>
       <c r="U10" s="91"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -7979,7 +7979,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="197" t="s">
+      <c r="C12" s="196" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="6"/>
@@ -8056,8 +8056,8 @@
         <v>0</v>
       </c>
       <c r="U13" s="91"/>
-      <c r="V13" s="181"/>
-      <c r="W13" s="181"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
       <c r="X13" s="91"/>
       <c r="Y13" s="91"/>
     </row>
@@ -8706,7 +8706,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="197" t="s">
+      <c r="C26" s="196" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="6"/>
@@ -9093,25 +9093,25 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="134"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="133"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F34" s="162" t="s">
+      <c r="F34" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="162"/>
-      <c r="H34" s="138">
+      <c r="G34" s="161"/>
+      <c r="H34" s="137">
         <f>H23+H32</f>
         <v>0</v>
       </c>
@@ -9155,7 +9155,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S34" s="199">
+      <c r="S34" s="198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9165,27 +9165,27 @@
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="153" t="s">
+      <c r="A36" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
-      <c r="N36" s="154"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="154"/>
-      <c r="R36" s="154"/>
-      <c r="S36" s="156"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="155"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="83"/>
@@ -9203,7 +9203,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="197" t="s">
+      <c r="C38" s="196" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="6"/>
@@ -9226,40 +9226,40 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="200">
-        <v>0</v>
-      </c>
-      <c r="I39" s="201">
-        <v>0</v>
-      </c>
-      <c r="J39" s="201">
-        <v>0</v>
-      </c>
-      <c r="K39" s="201">
-        <v>0</v>
-      </c>
-      <c r="L39" s="201">
-        <v>0</v>
-      </c>
-      <c r="M39" s="201">
-        <v>0</v>
-      </c>
-      <c r="N39" s="201">
-        <v>0</v>
-      </c>
-      <c r="O39" s="201">
-        <v>0</v>
-      </c>
-      <c r="P39" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="201">
-        <v>0</v>
-      </c>
-      <c r="R39" s="201">
-        <v>0</v>
-      </c>
-      <c r="S39" s="202">
+      <c r="H39" s="199">
+        <v>0</v>
+      </c>
+      <c r="I39" s="200">
+        <v>0</v>
+      </c>
+      <c r="J39" s="200">
+        <v>0</v>
+      </c>
+      <c r="K39" s="200">
+        <v>0</v>
+      </c>
+      <c r="L39" s="200">
+        <v>0</v>
+      </c>
+      <c r="M39" s="200">
+        <v>0</v>
+      </c>
+      <c r="N39" s="200">
+        <v>0</v>
+      </c>
+      <c r="O39" s="200">
+        <v>0</v>
+      </c>
+      <c r="P39" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="200">
+        <v>0</v>
+      </c>
+      <c r="R39" s="200">
+        <v>0</v>
+      </c>
+      <c r="S39" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9276,40 +9276,40 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="200">
-        <v>0</v>
-      </c>
-      <c r="I40" s="201">
-        <v>0</v>
-      </c>
-      <c r="J40" s="201">
-        <v>0</v>
-      </c>
-      <c r="K40" s="201">
-        <v>0</v>
-      </c>
-      <c r="L40" s="201">
-        <v>0</v>
-      </c>
-      <c r="M40" s="201">
-        <v>0</v>
-      </c>
-      <c r="N40" s="201">
-        <v>0</v>
-      </c>
-      <c r="O40" s="201">
-        <v>0</v>
-      </c>
-      <c r="P40" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="201">
-        <v>0</v>
-      </c>
-      <c r="R40" s="201">
-        <v>0</v>
-      </c>
-      <c r="S40" s="202">
+      <c r="H40" s="199">
+        <v>0</v>
+      </c>
+      <c r="I40" s="200">
+        <v>0</v>
+      </c>
+      <c r="J40" s="200">
+        <v>0</v>
+      </c>
+      <c r="K40" s="200">
+        <v>0</v>
+      </c>
+      <c r="L40" s="200">
+        <v>0</v>
+      </c>
+      <c r="M40" s="200">
+        <v>0</v>
+      </c>
+      <c r="N40" s="200">
+        <v>0</v>
+      </c>
+      <c r="O40" s="200">
+        <v>0</v>
+      </c>
+      <c r="P40" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="200">
+        <v>0</v>
+      </c>
+      <c r="R40" s="200">
+        <v>0</v>
+      </c>
+      <c r="S40" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9326,40 +9326,40 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="200">
-        <v>0</v>
-      </c>
-      <c r="I41" s="201">
-        <v>0</v>
-      </c>
-      <c r="J41" s="201">
-        <v>0</v>
-      </c>
-      <c r="K41" s="201">
-        <v>0</v>
-      </c>
-      <c r="L41" s="201">
-        <v>0</v>
-      </c>
-      <c r="M41" s="201">
-        <v>0</v>
-      </c>
-      <c r="N41" s="201">
-        <v>0</v>
-      </c>
-      <c r="O41" s="201">
-        <v>0</v>
-      </c>
-      <c r="P41" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="201">
-        <v>0</v>
-      </c>
-      <c r="R41" s="201">
-        <v>0</v>
-      </c>
-      <c r="S41" s="202">
+      <c r="H41" s="199">
+        <v>0</v>
+      </c>
+      <c r="I41" s="200">
+        <v>0</v>
+      </c>
+      <c r="J41" s="200">
+        <v>0</v>
+      </c>
+      <c r="K41" s="200">
+        <v>0</v>
+      </c>
+      <c r="L41" s="200">
+        <v>0</v>
+      </c>
+      <c r="M41" s="200">
+        <v>0</v>
+      </c>
+      <c r="N41" s="200">
+        <v>0</v>
+      </c>
+      <c r="O41" s="200">
+        <v>0</v>
+      </c>
+      <c r="P41" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="200">
+        <v>0</v>
+      </c>
+      <c r="R41" s="200">
+        <v>0</v>
+      </c>
+      <c r="S41" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9376,40 +9376,40 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="200">
-        <v>0</v>
-      </c>
-      <c r="I42" s="201">
-        <v>0</v>
-      </c>
-      <c r="J42" s="201">
-        <v>0</v>
-      </c>
-      <c r="K42" s="201">
-        <v>0</v>
-      </c>
-      <c r="L42" s="201">
-        <v>0</v>
-      </c>
-      <c r="M42" s="201">
-        <v>0</v>
-      </c>
-      <c r="N42" s="201">
-        <v>0</v>
-      </c>
-      <c r="O42" s="201">
-        <v>0</v>
-      </c>
-      <c r="P42" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="201">
-        <v>0</v>
-      </c>
-      <c r="R42" s="201">
-        <v>0</v>
-      </c>
-      <c r="S42" s="202">
+      <c r="H42" s="199">
+        <v>0</v>
+      </c>
+      <c r="I42" s="200">
+        <v>0</v>
+      </c>
+      <c r="J42" s="200">
+        <v>0</v>
+      </c>
+      <c r="K42" s="200">
+        <v>0</v>
+      </c>
+      <c r="L42" s="200">
+        <v>0</v>
+      </c>
+      <c r="M42" s="200">
+        <v>0</v>
+      </c>
+      <c r="N42" s="200">
+        <v>0</v>
+      </c>
+      <c r="O42" s="200">
+        <v>0</v>
+      </c>
+      <c r="P42" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="200">
+        <v>0</v>
+      </c>
+      <c r="R42" s="200">
+        <v>0</v>
+      </c>
+      <c r="S42" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9426,40 +9426,40 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="200">
-        <v>0</v>
-      </c>
-      <c r="I43" s="201">
-        <v>0</v>
-      </c>
-      <c r="J43" s="201">
-        <v>0</v>
-      </c>
-      <c r="K43" s="201">
-        <v>0</v>
-      </c>
-      <c r="L43" s="201">
-        <v>0</v>
-      </c>
-      <c r="M43" s="201">
-        <v>0</v>
-      </c>
-      <c r="N43" s="201">
-        <v>0</v>
-      </c>
-      <c r="O43" s="201">
-        <v>0</v>
-      </c>
-      <c r="P43" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="201">
-        <v>0</v>
-      </c>
-      <c r="R43" s="201">
-        <v>0</v>
-      </c>
-      <c r="S43" s="202">
+      <c r="H43" s="199">
+        <v>0</v>
+      </c>
+      <c r="I43" s="200">
+        <v>0</v>
+      </c>
+      <c r="J43" s="200">
+        <v>0</v>
+      </c>
+      <c r="K43" s="200">
+        <v>0</v>
+      </c>
+      <c r="L43" s="200">
+        <v>0</v>
+      </c>
+      <c r="M43" s="200">
+        <v>0</v>
+      </c>
+      <c r="N43" s="200">
+        <v>0</v>
+      </c>
+      <c r="O43" s="200">
+        <v>0</v>
+      </c>
+      <c r="P43" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="200">
+        <v>0</v>
+      </c>
+      <c r="R43" s="200">
+        <v>0</v>
+      </c>
+      <c r="S43" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9476,40 +9476,40 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="200">
-        <v>0</v>
-      </c>
-      <c r="I44" s="201">
-        <v>0</v>
-      </c>
-      <c r="J44" s="201">
-        <v>0</v>
-      </c>
-      <c r="K44" s="201">
-        <v>0</v>
-      </c>
-      <c r="L44" s="201">
-        <v>0</v>
-      </c>
-      <c r="M44" s="201">
-        <v>0</v>
-      </c>
-      <c r="N44" s="201">
-        <v>0</v>
-      </c>
-      <c r="O44" s="201">
-        <v>0</v>
-      </c>
-      <c r="P44" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="201">
-        <v>0</v>
-      </c>
-      <c r="R44" s="201">
-        <v>0</v>
-      </c>
-      <c r="S44" s="202">
+      <c r="H44" s="199">
+        <v>0</v>
+      </c>
+      <c r="I44" s="200">
+        <v>0</v>
+      </c>
+      <c r="J44" s="200">
+        <v>0</v>
+      </c>
+      <c r="K44" s="200">
+        <v>0</v>
+      </c>
+      <c r="L44" s="200">
+        <v>0</v>
+      </c>
+      <c r="M44" s="200">
+        <v>0</v>
+      </c>
+      <c r="N44" s="200">
+        <v>0</v>
+      </c>
+      <c r="O44" s="200">
+        <v>0</v>
+      </c>
+      <c r="P44" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="200">
+        <v>0</v>
+      </c>
+      <c r="R44" s="200">
+        <v>0</v>
+      </c>
+      <c r="S44" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9526,40 +9526,40 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="200">
-        <v>0</v>
-      </c>
-      <c r="I45" s="201">
-        <v>0</v>
-      </c>
-      <c r="J45" s="201">
-        <v>0</v>
-      </c>
-      <c r="K45" s="201">
-        <v>0</v>
-      </c>
-      <c r="L45" s="201">
-        <v>0</v>
-      </c>
-      <c r="M45" s="201">
-        <v>0</v>
-      </c>
-      <c r="N45" s="201">
-        <v>0</v>
-      </c>
-      <c r="O45" s="201">
-        <v>0</v>
-      </c>
-      <c r="P45" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="201">
-        <v>0</v>
-      </c>
-      <c r="R45" s="201">
-        <v>0</v>
-      </c>
-      <c r="S45" s="202">
+      <c r="H45" s="199">
+        <v>0</v>
+      </c>
+      <c r="I45" s="200">
+        <v>0</v>
+      </c>
+      <c r="J45" s="200">
+        <v>0</v>
+      </c>
+      <c r="K45" s="200">
+        <v>0</v>
+      </c>
+      <c r="L45" s="200">
+        <v>0</v>
+      </c>
+      <c r="M45" s="200">
+        <v>0</v>
+      </c>
+      <c r="N45" s="200">
+        <v>0</v>
+      </c>
+      <c r="O45" s="200">
+        <v>0</v>
+      </c>
+      <c r="P45" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="200">
+        <v>0</v>
+      </c>
+      <c r="R45" s="200">
+        <v>0</v>
+      </c>
+      <c r="S45" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9576,40 +9576,40 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="200">
-        <v>0</v>
-      </c>
-      <c r="I46" s="201">
-        <v>0</v>
-      </c>
-      <c r="J46" s="201">
-        <v>0</v>
-      </c>
-      <c r="K46" s="201">
-        <v>0</v>
-      </c>
-      <c r="L46" s="201">
-        <v>0</v>
-      </c>
-      <c r="M46" s="201">
-        <v>0</v>
-      </c>
-      <c r="N46" s="201">
-        <v>0</v>
-      </c>
-      <c r="O46" s="201">
-        <v>0</v>
-      </c>
-      <c r="P46" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="201">
-        <v>0</v>
-      </c>
-      <c r="R46" s="201">
-        <v>0</v>
-      </c>
-      <c r="S46" s="202">
+      <c r="H46" s="199">
+        <v>0</v>
+      </c>
+      <c r="I46" s="200">
+        <v>0</v>
+      </c>
+      <c r="J46" s="200">
+        <v>0</v>
+      </c>
+      <c r="K46" s="200">
+        <v>0</v>
+      </c>
+      <c r="L46" s="200">
+        <v>0</v>
+      </c>
+      <c r="M46" s="200">
+        <v>0</v>
+      </c>
+      <c r="N46" s="200">
+        <v>0</v>
+      </c>
+      <c r="O46" s="200">
+        <v>0</v>
+      </c>
+      <c r="P46" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="200">
+        <v>0</v>
+      </c>
+      <c r="R46" s="200">
+        <v>0</v>
+      </c>
+      <c r="S46" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9626,40 +9626,40 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="200">
-        <v>0</v>
-      </c>
-      <c r="I47" s="201">
-        <v>0</v>
-      </c>
-      <c r="J47" s="201">
-        <v>0</v>
-      </c>
-      <c r="K47" s="201">
-        <v>0</v>
-      </c>
-      <c r="L47" s="201">
-        <v>0</v>
-      </c>
-      <c r="M47" s="201">
-        <v>0</v>
-      </c>
-      <c r="N47" s="201">
-        <v>0</v>
-      </c>
-      <c r="O47" s="201">
-        <v>0</v>
-      </c>
-      <c r="P47" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="201">
-        <v>0</v>
-      </c>
-      <c r="R47" s="201">
-        <v>0</v>
-      </c>
-      <c r="S47" s="202">
+      <c r="H47" s="199">
+        <v>0</v>
+      </c>
+      <c r="I47" s="200">
+        <v>0</v>
+      </c>
+      <c r="J47" s="200">
+        <v>0</v>
+      </c>
+      <c r="K47" s="200">
+        <v>0</v>
+      </c>
+      <c r="L47" s="200">
+        <v>0</v>
+      </c>
+      <c r="M47" s="200">
+        <v>0</v>
+      </c>
+      <c r="N47" s="200">
+        <v>0</v>
+      </c>
+      <c r="O47" s="200">
+        <v>0</v>
+      </c>
+      <c r="P47" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="200">
+        <v>0</v>
+      </c>
+      <c r="R47" s="200">
+        <v>0</v>
+      </c>
+      <c r="S47" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9676,40 +9676,40 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="200">
-        <v>0</v>
-      </c>
-      <c r="I48" s="201">
-        <v>0</v>
-      </c>
-      <c r="J48" s="201">
-        <v>0</v>
-      </c>
-      <c r="K48" s="201">
-        <v>0</v>
-      </c>
-      <c r="L48" s="201">
-        <v>0</v>
-      </c>
-      <c r="M48" s="201">
-        <v>0</v>
-      </c>
-      <c r="N48" s="201">
-        <v>0</v>
-      </c>
-      <c r="O48" s="201">
-        <v>0</v>
-      </c>
-      <c r="P48" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="201">
-        <v>0</v>
-      </c>
-      <c r="R48" s="201">
-        <v>0</v>
-      </c>
-      <c r="S48" s="202">
+      <c r="H48" s="199">
+        <v>0</v>
+      </c>
+      <c r="I48" s="200">
+        <v>0</v>
+      </c>
+      <c r="J48" s="200">
+        <v>0</v>
+      </c>
+      <c r="K48" s="200">
+        <v>0</v>
+      </c>
+      <c r="L48" s="200">
+        <v>0</v>
+      </c>
+      <c r="M48" s="200">
+        <v>0</v>
+      </c>
+      <c r="N48" s="200">
+        <v>0</v>
+      </c>
+      <c r="O48" s="200">
+        <v>0</v>
+      </c>
+      <c r="P48" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="200">
+        <v>0</v>
+      </c>
+      <c r="R48" s="200">
+        <v>0</v>
+      </c>
+      <c r="S48" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9799,7 +9799,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
-      <c r="C52" s="197" t="s">
+      <c r="C52" s="196" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="6"/>
@@ -9822,40 +9822,40 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="200">
-        <v>0</v>
-      </c>
-      <c r="I53" s="201">
-        <v>0</v>
-      </c>
-      <c r="J53" s="201">
-        <v>0</v>
-      </c>
-      <c r="K53" s="201">
-        <v>0</v>
-      </c>
-      <c r="L53" s="201">
-        <v>0</v>
-      </c>
-      <c r="M53" s="201">
-        <v>0</v>
-      </c>
-      <c r="N53" s="201">
-        <v>0</v>
-      </c>
-      <c r="O53" s="201">
-        <v>0</v>
-      </c>
-      <c r="P53" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="201">
-        <v>0</v>
-      </c>
-      <c r="R53" s="201">
-        <v>0</v>
-      </c>
-      <c r="S53" s="202">
+      <c r="H53" s="199">
+        <v>0</v>
+      </c>
+      <c r="I53" s="200">
+        <v>0</v>
+      </c>
+      <c r="J53" s="200">
+        <v>0</v>
+      </c>
+      <c r="K53" s="200">
+        <v>0</v>
+      </c>
+      <c r="L53" s="200">
+        <v>0</v>
+      </c>
+      <c r="M53" s="200">
+        <v>0</v>
+      </c>
+      <c r="N53" s="200">
+        <v>0</v>
+      </c>
+      <c r="O53" s="200">
+        <v>0</v>
+      </c>
+      <c r="P53" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="200">
+        <v>0</v>
+      </c>
+      <c r="R53" s="200">
+        <v>0</v>
+      </c>
+      <c r="S53" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9872,40 +9872,40 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="200">
-        <v>0</v>
-      </c>
-      <c r="I54" s="201">
-        <v>0</v>
-      </c>
-      <c r="J54" s="201">
-        <v>0</v>
-      </c>
-      <c r="K54" s="201">
-        <v>0</v>
-      </c>
-      <c r="L54" s="201">
-        <v>0</v>
-      </c>
-      <c r="M54" s="201">
-        <v>0</v>
-      </c>
-      <c r="N54" s="201">
-        <v>0</v>
-      </c>
-      <c r="O54" s="201">
-        <v>0</v>
-      </c>
-      <c r="P54" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="201">
-        <v>0</v>
-      </c>
-      <c r="R54" s="201">
-        <v>0</v>
-      </c>
-      <c r="S54" s="202">
+      <c r="H54" s="199">
+        <v>0</v>
+      </c>
+      <c r="I54" s="200">
+        <v>0</v>
+      </c>
+      <c r="J54" s="200">
+        <v>0</v>
+      </c>
+      <c r="K54" s="200">
+        <v>0</v>
+      </c>
+      <c r="L54" s="200">
+        <v>0</v>
+      </c>
+      <c r="M54" s="200">
+        <v>0</v>
+      </c>
+      <c r="N54" s="200">
+        <v>0</v>
+      </c>
+      <c r="O54" s="200">
+        <v>0</v>
+      </c>
+      <c r="P54" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="200">
+        <v>0</v>
+      </c>
+      <c r="R54" s="200">
+        <v>0</v>
+      </c>
+      <c r="S54" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9922,40 +9922,40 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="200">
-        <v>0</v>
-      </c>
-      <c r="I55" s="201">
-        <v>0</v>
-      </c>
-      <c r="J55" s="201">
-        <v>0</v>
-      </c>
-      <c r="K55" s="201">
-        <v>0</v>
-      </c>
-      <c r="L55" s="201">
-        <v>0</v>
-      </c>
-      <c r="M55" s="201">
-        <v>0</v>
-      </c>
-      <c r="N55" s="201">
-        <v>0</v>
-      </c>
-      <c r="O55" s="201">
-        <v>0</v>
-      </c>
-      <c r="P55" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="201">
-        <v>0</v>
-      </c>
-      <c r="R55" s="201">
-        <v>0</v>
-      </c>
-      <c r="S55" s="202">
+      <c r="H55" s="199">
+        <v>0</v>
+      </c>
+      <c r="I55" s="200">
+        <v>0</v>
+      </c>
+      <c r="J55" s="200">
+        <v>0</v>
+      </c>
+      <c r="K55" s="200">
+        <v>0</v>
+      </c>
+      <c r="L55" s="200">
+        <v>0</v>
+      </c>
+      <c r="M55" s="200">
+        <v>0</v>
+      </c>
+      <c r="N55" s="200">
+        <v>0</v>
+      </c>
+      <c r="O55" s="200">
+        <v>0</v>
+      </c>
+      <c r="P55" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="200">
+        <v>0</v>
+      </c>
+      <c r="R55" s="200">
+        <v>0</v>
+      </c>
+      <c r="S55" s="201">
         <v>0</v>
       </c>
     </row>
@@ -9972,40 +9972,40 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="200">
-        <v>0</v>
-      </c>
-      <c r="I56" s="201">
-        <v>0</v>
-      </c>
-      <c r="J56" s="201">
-        <v>0</v>
-      </c>
-      <c r="K56" s="201">
-        <v>0</v>
-      </c>
-      <c r="L56" s="201">
-        <v>0</v>
-      </c>
-      <c r="M56" s="201">
-        <v>0</v>
-      </c>
-      <c r="N56" s="201">
-        <v>0</v>
-      </c>
-      <c r="O56" s="201">
-        <v>0</v>
-      </c>
-      <c r="P56" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="201">
-        <v>0</v>
-      </c>
-      <c r="R56" s="201">
-        <v>0</v>
-      </c>
-      <c r="S56" s="202">
+      <c r="H56" s="199">
+        <v>0</v>
+      </c>
+      <c r="I56" s="200">
+        <v>0</v>
+      </c>
+      <c r="J56" s="200">
+        <v>0</v>
+      </c>
+      <c r="K56" s="200">
+        <v>0</v>
+      </c>
+      <c r="L56" s="200">
+        <v>0</v>
+      </c>
+      <c r="M56" s="200">
+        <v>0</v>
+      </c>
+      <c r="N56" s="200">
+        <v>0</v>
+      </c>
+      <c r="O56" s="200">
+        <v>0</v>
+      </c>
+      <c r="P56" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="200">
+        <v>0</v>
+      </c>
+      <c r="R56" s="200">
+        <v>0</v>
+      </c>
+      <c r="S56" s="201">
         <v>0</v>
       </c>
     </row>
@@ -10022,40 +10022,40 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="200">
-        <v>0</v>
-      </c>
-      <c r="I57" s="201">
-        <v>0</v>
-      </c>
-      <c r="J57" s="201">
-        <v>0</v>
-      </c>
-      <c r="K57" s="201">
-        <v>0</v>
-      </c>
-      <c r="L57" s="201">
-        <v>0</v>
-      </c>
-      <c r="M57" s="201">
-        <v>0</v>
-      </c>
-      <c r="N57" s="201">
-        <v>0</v>
-      </c>
-      <c r="O57" s="201">
-        <v>0</v>
-      </c>
-      <c r="P57" s="201">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="201">
-        <v>0</v>
-      </c>
-      <c r="R57" s="201">
-        <v>0</v>
-      </c>
-      <c r="S57" s="202">
+      <c r="H57" s="199">
+        <v>0</v>
+      </c>
+      <c r="I57" s="200">
+        <v>0</v>
+      </c>
+      <c r="J57" s="200">
+        <v>0</v>
+      </c>
+      <c r="K57" s="200">
+        <v>0</v>
+      </c>
+      <c r="L57" s="200">
+        <v>0</v>
+      </c>
+      <c r="M57" s="200">
+        <v>0</v>
+      </c>
+      <c r="N57" s="200">
+        <v>0</v>
+      </c>
+      <c r="O57" s="200">
+        <v>0</v>
+      </c>
+      <c r="P57" s="200">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="200">
+        <v>0</v>
+      </c>
+      <c r="R57" s="200">
+        <v>0</v>
+      </c>
+      <c r="S57" s="201">
         <v>0</v>
       </c>
     </row>
@@ -10126,69 +10126,69 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
-      <c r="O59" s="133"/>
-      <c r="P59" s="133"/>
-      <c r="Q59" s="133"/>
-      <c r="R59" s="133"/>
-      <c r="S59" s="134"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="132"/>
+      <c r="P59" s="132"/>
+      <c r="Q59" s="132"/>
+      <c r="R59" s="132"/>
+      <c r="S59" s="133"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F60" s="177" t="s">
+      <c r="F60" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="177"/>
-      <c r="H60" s="142">
+      <c r="G60" s="176"/>
+      <c r="H60" s="141">
         <f>H49+H58</f>
         <v>0</v>
       </c>
-      <c r="I60" s="143">
+      <c r="I60" s="142">
         <f t="shared" ref="I60:S60" si="5">I49+I58</f>
         <v>0</v>
       </c>
-      <c r="J60" s="143">
+      <c r="J60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K60" s="143">
+      <c r="K60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L60" s="143">
+      <c r="L60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M60" s="143">
+      <c r="M60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N60" s="143">
+      <c r="N60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O60" s="143">
+      <c r="O60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P60" s="143">
+      <c r="P60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="143">
+      <c r="Q60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R60" s="143">
+      <c r="R60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S60" s="144">
+      <c r="S60" s="143">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10198,60 +10198,60 @@
       <c r="S61" s="4"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="193" t="s">
+      <c r="A62" s="192" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="194"/>
-      <c r="C62" s="194"/>
-      <c r="D62" s="194"/>
-      <c r="E62" s="194"/>
-      <c r="F62" s="194"/>
-      <c r="G62" s="196"/>
-      <c r="H62" s="206">
+      <c r="B62" s="193"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="193"/>
+      <c r="E62" s="193"/>
+      <c r="F62" s="193"/>
+      <c r="G62" s="195"/>
+      <c r="H62" s="205">
         <f>H34-H60</f>
         <v>0</v>
       </c>
-      <c r="I62" s="194">
+      <c r="I62" s="193">
         <f t="shared" ref="I62:S62" si="6">I34-I60</f>
         <v>0</v>
       </c>
-      <c r="J62" s="194">
+      <c r="J62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K62" s="194">
+      <c r="K62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L62" s="194">
+      <c r="L62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M62" s="194">
+      <c r="M62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N62" s="194">
+      <c r="N62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O62" s="194">
+      <c r="O62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P62" s="194">
+      <c r="P62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="194">
+      <c r="Q62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R62" s="194">
+      <c r="R62" s="193">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S62" s="196">
+      <c r="S62" s="195">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10261,7 +10261,7 @@
       <c r="S63" s="4"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="203" t="s">
+      <c r="A64" s="202" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="125"/>
@@ -10270,7 +10270,7 @@
       <c r="E64" s="125"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="204"/>
+      <c r="H64" s="203"/>
       <c r="I64" s="125"/>
       <c r="J64" s="125"/>
       <c r="K64" s="125"/>
@@ -10281,7 +10281,7 @@
       <c r="P64" s="125"/>
       <c r="Q64" s="125"/>
       <c r="R64" s="125"/>
-      <c r="S64" s="205"/>
+      <c r="S64" s="204"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="61" t="s">
@@ -10297,13 +10297,13 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="20"/>
-      <c r="C66" s="197" t="s">
+      <c r="C66" s="196" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="197" t="s">
+      <c r="G66" s="196" t="s">
         <v>92</v>
       </c>
       <c r="H66" s="20"/>
@@ -10320,7 +10320,7 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="160">
+      <c r="G67" s="159">
         <v>0</v>
       </c>
       <c r="H67" s="20">
@@ -10890,111 +10890,111 @@
       <c r="G76" s="85">
         <v>0</v>
       </c>
-      <c r="H76" s="132">
+      <c r="H76" s="131">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I76" s="133">
+      <c r="I76" s="132">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J76" s="133">
+      <c r="J76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K76" s="133">
+      <c r="K76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L76" s="133">
+      <c r="L76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M76" s="133">
+      <c r="M76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N76" s="133">
+      <c r="N76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O76" s="133">
+      <c r="O76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P76" s="133">
+      <c r="P76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="133">
+      <c r="Q76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R76" s="133">
+      <c r="R76" s="132">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S76" s="134">
+      <c r="S76" s="133">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
-      <c r="D77" s="207" t="s">
+      <c r="D77" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="207"/>
-      <c r="F77" s="208"/>
-      <c r="G77" s="191">
+      <c r="E77" s="206"/>
+      <c r="F77" s="207"/>
+      <c r="G77" s="190">
         <f>SUM(G67:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="204">
+      <c r="H77" s="203">
         <f>SUM(H67:H76)</f>
         <v>0</v>
       </c>
-      <c r="I77" s="185">
+      <c r="I77" s="184">
         <f t="shared" ref="I77:S77" si="10">SUM(I67:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="185">
+      <c r="J77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K77" s="185">
+      <c r="K77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L77" s="185">
+      <c r="L77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M77" s="185">
+      <c r="M77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N77" s="185">
+      <c r="N77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O77" s="185">
+      <c r="O77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P77" s="185">
+      <c r="P77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q77" s="185">
+      <c r="Q77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R77" s="185">
+      <c r="R77" s="184">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S77" s="205">
+      <c r="S77" s="204">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -11023,13 +11023,13 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
-      <c r="C80" s="197" t="s">
+      <c r="C80" s="196" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="197" t="s">
+      <c r="G80" s="196" t="s">
         <v>92</v>
       </c>
       <c r="H80" s="20"/>
@@ -11046,7 +11046,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="145">
+      <c r="G81" s="144">
         <v>0</v>
       </c>
       <c r="H81" s="20">
@@ -11109,7 +11109,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="191">
+      <c r="G82" s="190">
         <v>0</v>
       </c>
       <c r="H82" s="20">
@@ -11172,7 +11172,7 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="191">
+      <c r="G83" s="190">
         <v>0</v>
       </c>
       <c r="H83" s="20">
@@ -11235,7 +11235,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="191">
+      <c r="G84" s="190">
         <v>0</v>
       </c>
       <c r="H84" s="20">
@@ -11298,54 +11298,54 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="145">
-        <v>0</v>
-      </c>
-      <c r="H85" s="132">
+      <c r="G85" s="144">
+        <v>0</v>
+      </c>
+      <c r="H85" s="131">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I85" s="133">
+      <c r="I85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J85" s="133">
+      <c r="J85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K85" s="133">
+      <c r="K85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L85" s="133">
+      <c r="L85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="M85" s="133">
+      <c r="M85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N85" s="133">
+      <c r="N85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O85" s="133">
+      <c r="O85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P85" s="133">
+      <c r="P85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="133">
+      <c r="Q85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R85" s="133">
+      <c r="R85" s="132">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S85" s="134">
+      <c r="S85" s="133">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -11353,60 +11353,60 @@
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="207" t="s">
+      <c r="D86" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="E86" s="207"/>
-      <c r="F86" s="208"/>
-      <c r="G86" s="191">
+      <c r="E86" s="206"/>
+      <c r="F86" s="207"/>
+      <c r="G86" s="190">
         <f>SUM(G81:G85)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="204">
+      <c r="H86" s="203">
         <f>SUM(H81:H85)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="185">
+      <c r="I86" s="184">
         <f t="shared" ref="I86:S86" si="13">SUM(I81:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="185">
+      <c r="J86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K86" s="185">
+      <c r="K86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L86" s="185">
+      <c r="L86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M86" s="185">
+      <c r="M86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N86" s="185">
+      <c r="N86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O86" s="185">
+      <c r="O86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="P86" s="185">
+      <c r="P86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="185">
+      <c r="Q86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R86" s="185">
+      <c r="R86" s="184">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="S86" s="205">
+      <c r="S86" s="204">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>

--- a/BudgetTemplate_StartMon_Jan.xlsx
+++ b/BudgetTemplate_StartMon_Jan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Paycheck Analysis" sheetId="1" state="visible" r:id="rId2"/>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
   <si>
     <t xml:space="preserve">PAYCHECK ANALYSIS</t>
   </si>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">Start Month:</t>
   </si>
   <si>
-    <t xml:space="preserve">February</t>
+    <t xml:space="preserve">January</t>
   </si>
   <si>
     <t xml:space="preserve">RECURRING VALUES (populate one cell per input row)</t>
@@ -1495,7 +1495,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="202">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1912,10 +1912,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2028,18 +2024,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2068,10 +2052,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2084,6 +2064,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2112,18 +2096,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2253,10 +2225,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2421,14 +2389,14 @@
       <selection pane="bottomLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="7" style="2" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="7" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,13 +3397,13 @@
   </sheetPr>
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O58" activeCellId="0" sqref="O58"/>
+      <selection pane="bottomLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.29"/>
   </cols>
@@ -3447,9 +3415,9 @@
       <c r="B1" s="4"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -3464,16 +3432,16 @@
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107" t="n">
+      <c r="B4" s="105"/>
+      <c r="C4" s="106" t="n">
         <f aca="false">'Paycheck Analysis'!D1</f>
         <v>2020</v>
       </c>
@@ -3481,11 +3449,11 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110" t="str">
+      <c r="B5" s="108"/>
+      <c r="C5" s="109" t="str">
         <f aca="false">'Paycheck Analysis'!O3</f>
         <v>SEMI-MO</v>
       </c>
@@ -3493,41 +3461,41 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112" t="s">
+      <c r="B6" s="110"/>
+      <c r="C6" s="111" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="39"/>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="114" t="s">
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="114"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="119" t="s">
+      <c r="O6" s="113"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="121"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="120"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="39"/>
@@ -3558,86 +3526,86 @@
       <c r="P7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="122" t="str">
+      <c r="Q7" s="121" t="str">
         <f aca="false">IF(C4, CONCATENATE("JAN ", C4), "JAN {?}")</f>
         <v>JAN 2020</v>
       </c>
-      <c r="R7" s="123" t="str">
+      <c r="R7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("FEB ", C4), "FEB {?}")</f>
         <v>FEB 2020</v>
       </c>
-      <c r="S7" s="123" t="str">
+      <c r="S7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("MAR ", C4), "MAR {?}")</f>
         <v>MAR 2020</v>
       </c>
-      <c r="T7" s="123" t="str">
+      <c r="T7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("APR ", C4), "APR {?}")</f>
         <v>APR 2020</v>
       </c>
-      <c r="U7" s="123" t="str">
+      <c r="U7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("MAY ", C4), "MAY {?}")</f>
         <v>MAY 2020</v>
       </c>
-      <c r="V7" s="123" t="str">
+      <c r="V7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("JUN ", C4), "JUN {?}")</f>
         <v>JUN 2020</v>
       </c>
-      <c r="W7" s="123" t="str">
+      <c r="W7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("JUL ", C4), "JUL {?}")</f>
         <v>JUL 2020</v>
       </c>
-      <c r="X7" s="123" t="str">
+      <c r="X7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("AUG ", C4), "AUG {?}")</f>
         <v>AUG 2020</v>
       </c>
-      <c r="Y7" s="123" t="str">
+      <c r="Y7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("SEP ", C4), "SEP {?}")</f>
         <v>SEP 2020</v>
       </c>
-      <c r="Z7" s="123" t="str">
+      <c r="Z7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("OCT ", C4), "OCT {?}")</f>
         <v>OCT 2020</v>
       </c>
-      <c r="AA7" s="123" t="str">
+      <c r="AA7" s="122" t="str">
         <f aca="false">IF(C4, CONCATENATE("NOV ", C4), "NOV {?}")</f>
         <v>NOV 2020</v>
       </c>
-      <c r="AB7" s="124" t="str">
+      <c r="AB7" s="123" t="str">
         <f aca="false">IF(C4, CONCATENATE("DEC ", C4), "DEC {?}")</f>
         <v>DEC 2020</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="130"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="130"/>
-      <c r="Y8" s="130"/>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="131"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="129"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="129"/>
+      <c r="U8" s="129"/>
+      <c r="V8" s="129"/>
+      <c r="W8" s="129"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="129"/>
+      <c r="AB8" s="130"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74"/>
@@ -3648,24 +3616,24 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="132"/>
+      <c r="G9" s="131"/>
       <c r="N9" s="74"/>
       <c r="O9" s="17"/>
       <c r="P9" s="39"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="134"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="74"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="39"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="74"/>
       <c r="B10" s="73"/>
       <c r="C10" s="49" t="s">
@@ -3711,50 +3679,51 @@
         <f aca="false">'Paycheck Analysis'!O45</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="135" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="136" t="n">
+      <c r="Q10" s="132" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="S10" s="137" t="n">
+      <c r="R10" s="132" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="T10" s="137" t="n">
+      <c r="S10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="137" t="n">
+      <c r="T10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="V10" s="137" t="n">
+      <c r="U10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="137" t="n">
+      <c r="V10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="X10" s="137" t="n">
+      <c r="W10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="137" t="n">
+      <c r="X10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="137" t="n">
+      <c r="Y10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="137" t="n">
+      <c r="Z10" s="133" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="138" t="n">
+      <c r="AA10" s="133" t="n">
+        <f aca="false">N10</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="134" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
@@ -3766,66 +3735,66 @@
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="139" t="s">
+      <c r="G11" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="140" t="n">
+      <c r="N11" s="136" t="n">
         <f aca="false">N10</f>
         <v>0</v>
       </c>
-      <c r="O11" s="141" t="n">
+      <c r="O11" s="137" t="n">
         <f aca="false">O10</f>
         <v>0</v>
       </c>
-      <c r="P11" s="142" t="n">
+      <c r="P11" s="138" t="n">
         <f aca="false">P10</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="140" t="n">
+      <c r="Q11" s="136" t="n">
         <f aca="false">SUM(Q10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="140" t="n">
+      <c r="R11" s="136" t="n">
         <f aca="false">SUM(R10)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="140" t="n">
+      <c r="S11" s="136" t="n">
         <f aca="false">SUM(S10)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="140" t="n">
+      <c r="T11" s="136" t="n">
         <f aca="false">SUM(T10)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="140" t="n">
+      <c r="U11" s="136" t="n">
         <f aca="false">SUM(U10)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="140" t="n">
+      <c r="V11" s="136" t="n">
         <f aca="false">SUM(V10)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="140" t="n">
+      <c r="W11" s="136" t="n">
         <f aca="false">SUM(W10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="140" t="n">
+      <c r="X11" s="136" t="n">
         <f aca="false">SUM(X10)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="140" t="n">
+      <c r="Y11" s="136" t="n">
         <f aca="false">SUM(Y10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="140" t="n">
+      <c r="Z11" s="136" t="n">
         <f aca="false">SUM(Z10)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="140" t="n">
+      <c r="AA11" s="136" t="n">
         <f aca="false">SUM(AA10)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="140" t="n">
+      <c r="AB11" s="136" t="n">
         <f aca="false">SUM(AB10)</f>
         <v>0</v>
       </c>
@@ -3841,18 +3810,18 @@
       <c r="N12" s="74"/>
       <c r="O12" s="17"/>
       <c r="P12" s="39"/>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="134"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74"/>
@@ -3863,28 +3832,22 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="133"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="134"/>
+      <c r="G13" s="131"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74"/>
@@ -3896,12 +3859,12 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="39"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="146"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="140"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="141"/>
       <c r="N14" s="74" t="n">
         <f aca="false">+(H14*30)+(I14*52/12)+(J14*26/12)+(K14*2)+L14+M14/12</f>
         <v>0</v>
@@ -3914,51 +3877,51 @@
         <f aca="false">IF(C5 = "DAILY", O14/365, IF(C5 = "WEEKLY", O14/52, IF(C5 = "BI-WEEKLY", O14/26, IF(C5 = "SEMI-MO", N14/2, IF(C5 = "MONTHLY", N14, IF(C5 = "ANNUAL", O14, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="135" t="n">
+      <c r="Q14" s="142" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="R14" s="137" t="n">
+      <c r="R14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="S14" s="137" t="n">
+      <c r="S14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="T14" s="137" t="n">
+      <c r="T14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="U14" s="137" t="n">
+      <c r="U14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="V14" s="137" t="n">
+      <c r="V14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="137" t="n">
+      <c r="W14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="X14" s="137" t="n">
+      <c r="X14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="137" t="n">
+      <c r="Y14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="137" t="n">
+      <c r="Z14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="137" t="n">
+      <c r="AA14" s="133" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="147" t="n">
+      <c r="AB14" s="143" t="n">
         <f aca="false">N14</f>
         <v>0</v>
       </c>
@@ -3973,12 +3936,12 @@
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="48"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="146"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="141"/>
       <c r="N15" s="74" t="n">
         <f aca="false">+(H15*30)+(I15*52/12)+(J15*26/12)+(K15*2)+L15+M15/12</f>
         <v>0</v>
@@ -3991,122 +3954,122 @@
         <f aca="false">IF(C5 = "DAILY", O15/365, IF(C5 = "WEEKLY", O15/52, IF(C5 = "BI-WEEKLY", O15/26, IF(C5 = "SEMI-MO", N15/2, IF(C5 = "MONTHLY", N15, IF(C5 = "ANNUAL", O15, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="135" t="n">
+      <c r="Q15" s="142" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="R15" s="137" t="n">
+      <c r="R15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="S15" s="137" t="n">
+      <c r="S15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="T15" s="137" t="n">
+      <c r="T15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="U15" s="137" t="n">
+      <c r="U15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="V15" s="137" t="n">
+      <c r="V15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="137" t="n">
+      <c r="W15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="X15" s="137" t="n">
+      <c r="X15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="137" t="n">
+      <c r="Y15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="137" t="n">
+      <c r="Z15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="137" t="n">
+      <c r="AA15" s="133" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="147" t="n">
+      <c r="AB15" s="143" t="n">
         <f aca="false">N15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="140" t="n">
+      <c r="N16" s="136" t="n">
         <f aca="false">SUM(N14:N15)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="148" t="n">
+      <c r="O16" s="144" t="n">
         <f aca="false">SUM(O14:O15)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="142" t="n">
+      <c r="P16" s="138" t="n">
         <f aca="false">SUM(P14:P15)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="140" t="n">
+      <c r="Q16" s="136" t="n">
         <f aca="false">SUM(Q14:Q15)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="140" t="n">
+      <c r="R16" s="136" t="n">
         <f aca="false">SUM(R14:R15)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="140" t="n">
+      <c r="S16" s="136" t="n">
         <f aca="false">SUM(S14:S15)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="140" t="n">
+      <c r="T16" s="136" t="n">
         <f aca="false">SUM(T14:T15)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="140" t="n">
+      <c r="U16" s="136" t="n">
         <f aca="false">SUM(U14:U15)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="140" t="n">
+      <c r="V16" s="136" t="n">
         <f aca="false">SUM(V14:V15)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="140" t="n">
+      <c r="W16" s="136" t="n">
         <f aca="false">SUM(W14:W15)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="140" t="n">
+      <c r="X16" s="136" t="n">
         <f aca="false">SUM(X14:X15)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="140" t="n">
+      <c r="Y16" s="136" t="n">
         <f aca="false">SUM(Y14:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="140" t="n">
+      <c r="Z16" s="136" t="n">
         <f aca="false">SUM(Z14:Z15)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="140" t="n">
+      <c r="AA16" s="136" t="n">
         <f aca="false">SUM(AA14:AA15)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="140" t="n">
+      <c r="AB16" s="136" t="n">
         <f aca="false">SUM(AB14:AB15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="149"/>
+      <c r="G17" s="145"/>
       <c r="N17" s="74"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="74"/>
@@ -4120,7 +4083,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="132"/>
+      <c r="G18" s="131"/>
       <c r="N18" s="74"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="74"/>
@@ -4136,27 +4099,27 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="134"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="39"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="39"/>
-      <c r="Q19" s="150"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="147"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="143"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="74"/>
@@ -4168,27 +4131,27 @@
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="49"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="134"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="39"/>
-      <c r="Q20" s="150"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="145"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="145"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="147"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
+      <c r="AB20" s="143"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="74"/>
@@ -4197,58 +4160,58 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="139" t="s">
+      <c r="G21" s="135" t="s">
         <v>28</v>
       </c>
       <c r="M21" s="17"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="140" t="n">
+      <c r="N21" s="74"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="136" t="n">
         <f aca="false">Q19+Q20</f>
         <v>0</v>
       </c>
-      <c r="R21" s="148" t="n">
+      <c r="R21" s="144" t="n">
         <f aca="false">R19+R20</f>
         <v>0</v>
       </c>
-      <c r="S21" s="148" t="n">
+      <c r="S21" s="144" t="n">
         <f aca="false">S19+S20</f>
         <v>0</v>
       </c>
-      <c r="T21" s="148" t="n">
+      <c r="T21" s="144" t="n">
         <f aca="false">T19+T20</f>
         <v>0</v>
       </c>
-      <c r="U21" s="148" t="n">
+      <c r="U21" s="144" t="n">
         <f aca="false">U19+U20</f>
         <v>0</v>
       </c>
-      <c r="V21" s="148" t="n">
+      <c r="V21" s="144" t="n">
         <f aca="false">V19+V20</f>
         <v>0</v>
       </c>
-      <c r="W21" s="148" t="n">
+      <c r="W21" s="144" t="n">
         <f aca="false">W19+W20</f>
         <v>0</v>
       </c>
-      <c r="X21" s="148" t="n">
+      <c r="X21" s="144" t="n">
         <f aca="false">X19+X20</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="148" t="n">
+      <c r="Y21" s="144" t="n">
         <f aca="false">Y19+Y20</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="148" t="n">
+      <c r="Z21" s="144" t="n">
         <f aca="false">Z19+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="148" t="n">
+      <c r="AA21" s="144" t="n">
         <f aca="false">AA19+AA20</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="142" t="n">
+      <c r="AB21" s="138" t="n">
         <f aca="false">AB19+AB20</f>
         <v>0</v>
       </c>
@@ -4267,86 +4230,86 @@
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
       <c r="M22" s="49"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="156"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="148"/>
+      <c r="AB22" s="149"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="52" t="s">
         <v>53</v>
       </c>
       <c r="G23" s="52"/>
-      <c r="H23" s="157"/>
+      <c r="H23" s="150"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="158" t="n">
+      <c r="N23" s="151" t="n">
         <f aca="false">N11+N16+N21</f>
         <v>0</v>
       </c>
-      <c r="O23" s="158" t="n">
+      <c r="O23" s="151" t="n">
         <f aca="false">O11+O16+O21</f>
         <v>0</v>
       </c>
-      <c r="P23" s="158" t="n">
+      <c r="P23" s="151" t="n">
         <f aca="false">P11+P16+P21</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="158" t="n">
+      <c r="Q23" s="151" t="n">
         <f aca="false">Q11+Q16+Q21</f>
         <v>0</v>
       </c>
-      <c r="R23" s="130" t="n">
+      <c r="R23" s="129" t="n">
         <f aca="false">R11+R16+R21</f>
         <v>0</v>
       </c>
-      <c r="S23" s="130" t="n">
+      <c r="S23" s="129" t="n">
         <f aca="false">S11+S16+S21</f>
         <v>0</v>
       </c>
-      <c r="T23" s="130" t="n">
+      <c r="T23" s="129" t="n">
         <f aca="false">T11+T16+T21</f>
         <v>0</v>
       </c>
-      <c r="U23" s="130" t="n">
+      <c r="U23" s="129" t="n">
         <f aca="false">U11+U16+U21</f>
         <v>0</v>
       </c>
-      <c r="V23" s="130" t="n">
+      <c r="V23" s="129" t="n">
         <f aca="false">V11+V16+V21</f>
         <v>0</v>
       </c>
-      <c r="W23" s="130" t="n">
+      <c r="W23" s="129" t="n">
         <f aca="false">W11+W16+W21</f>
         <v>0</v>
       </c>
-      <c r="X23" s="130" t="n">
+      <c r="X23" s="129" t="n">
         <f aca="false">X11+X16+X21</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="130" t="n">
+      <c r="Y23" s="129" t="n">
         <f aca="false">Y11+Y16+Y21</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="130" t="n">
+      <c r="Z23" s="129" t="n">
         <f aca="false">Z11+Z16+Z21</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="130" t="n">
+      <c r="AA23" s="129" t="n">
         <f aca="false">AA11+AA16+AA21</f>
         <v>0</v>
       </c>
-      <c r="AB23" s="131" t="n">
+      <c r="AB23" s="130" t="n">
         <f aca="false">AB11+AB16+AB21</f>
         <v>0</v>
       </c>
@@ -4372,36 +4335,36 @@
       <c r="AB24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="161"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="162"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="153"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="155"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
@@ -4445,12 +4408,12 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="137"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="133"/>
       <c r="N27" s="74" t="n">
         <f aca="false">+(H27*30)+(I27*52/12)+(J27*26/12)+(K27*2)+L27+M27/12</f>
         <v>0</v>
@@ -4463,51 +4426,51 @@
         <f aca="false">IF(C5 = "DAILY", O27/365, IF(C5 = "WEEKLY", O27/52, IF(C5 = "BI-WEEKLY", O27/26, IF(C5 = "SEMI-MO", N27/2, IF(C5 = "MONTHLY", N27, IF(C5 = "ANNUAL", O27, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="150" t="n">
+      <c r="Q27" s="146" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="R27" s="145" t="n">
+      <c r="R27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="S27" s="145" t="n">
+      <c r="S27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="T27" s="145" t="n">
+      <c r="T27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="U27" s="145" t="n">
+      <c r="U27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="V27" s="145" t="n">
+      <c r="V27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="W27" s="145" t="n">
+      <c r="W27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="X27" s="145" t="n">
+      <c r="X27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="145" t="n">
+      <c r="Y27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="145" t="n">
+      <c r="Z27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="145" t="n">
+      <c r="AA27" s="140" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="147" t="n">
+      <c r="AB27" s="143" t="n">
         <f aca="false">N27</f>
         <v>0</v>
       </c>
@@ -4522,12 +4485,12 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="137"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="133"/>
       <c r="N28" s="74" t="n">
         <f aca="false">+(H28*30)+(I28*52/12)+(J28*26/12)+(K28*2)+L28+M28/12</f>
         <v>0</v>
@@ -4540,51 +4503,51 @@
         <f aca="false">IF(C5 = "DAILY", O28/365, IF(C5 = "WEEKLY", O28/52, IF(C5 = "BI-WEEKLY", O28/26, IF(C5 = "SEMI-MO", N28/2, IF(C5 = "MONTHLY", L28, IF(C5 = "ANNUAL", N28, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="150" t="n">
+      <c r="Q28" s="146" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="R28" s="145" t="n">
+      <c r="R28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="S28" s="145" t="n">
+      <c r="S28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="T28" s="145" t="n">
+      <c r="T28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="U28" s="145" t="n">
+      <c r="U28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="V28" s="145" t="n">
+      <c r="V28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="W28" s="145" t="n">
+      <c r="W28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="X28" s="145" t="n">
+      <c r="X28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="145" t="n">
+      <c r="Y28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="145" t="n">
+      <c r="Z28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="145" t="n">
+      <c r="AA28" s="140" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="147" t="n">
+      <c r="AB28" s="143" t="n">
         <f aca="false">N28</f>
         <v>0</v>
       </c>
@@ -4599,12 +4562,12 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="137"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="133"/>
       <c r="N29" s="74" t="n">
         <f aca="false">+(H29*30)+(I29*52/12)+(J29*26/12)+(K29*2)+L29+M29/12</f>
         <v>0</v>
@@ -4617,51 +4580,51 @@
         <f aca="false">IF(C5 = "DAILY", O29/365, IF(C5 = "WEEKLY", O29/52, IF(C5 = "BI-WEEKLY", O29/26, IF(C5 = "SEMI-MO", N29/2, IF(C5 = "MONTHLY", N29, IF(C5 = "ANNUAL", O29, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="150" t="n">
+      <c r="Q29" s="146" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="145" t="n">
+      <c r="R29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="S29" s="145" t="n">
+      <c r="S29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="T29" s="145" t="n">
+      <c r="T29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="145" t="n">
+      <c r="U29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="V29" s="145" t="n">
+      <c r="V29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="W29" s="145" t="n">
+      <c r="W29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="X29" s="145" t="n">
+      <c r="X29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="145" t="n">
+      <c r="Y29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="145" t="n">
+      <c r="Z29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="AA29" s="145" t="n">
+      <c r="AA29" s="140" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="147" t="n">
+      <c r="AB29" s="143" t="n">
         <f aca="false">N29</f>
         <v>0</v>
       </c>
@@ -4676,12 +4639,12 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="137"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="140"/>
+      <c r="M30" s="133"/>
       <c r="N30" s="74" t="n">
         <f aca="false">+(H30*30)+(I30*52/12)+(J30*26/12)+(K30*2)+L30+M30/12</f>
         <v>0</v>
@@ -4694,51 +4657,51 @@
         <f aca="false">IF(C5 = "DAILY", 30/365, IF(C5 = "WEEKLY", O30/52, IF(C5 = "BI-WEEKLY", O30/26, IF(C5 = "SEMI-MO", N30/2, IF(C5 = "MONTHLY", N30, IF(C5 = "ANNUAL", O30, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="150" t="n">
+      <c r="Q30" s="146" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="R30" s="145" t="n">
+      <c r="R30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="S30" s="145" t="n">
+      <c r="S30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="T30" s="145" t="n">
+      <c r="T30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="U30" s="145" t="n">
+      <c r="U30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="V30" s="145" t="n">
+      <c r="V30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="W30" s="145" t="n">
+      <c r="W30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="X30" s="145" t="n">
+      <c r="X30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="145" t="n">
+      <c r="Y30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="145" t="n">
+      <c r="Z30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="AA30" s="145" t="n">
+      <c r="AA30" s="140" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
-      <c r="AB30" s="147" t="n">
+      <c r="AB30" s="143" t="n">
         <f aca="false">N30</f>
         <v>0</v>
       </c>
@@ -4753,12 +4716,12 @@
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="137"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="140"/>
+      <c r="M31" s="133"/>
       <c r="N31" s="74" t="n">
         <f aca="false">+(H31*30)+(I31*52/12)+(J31*26/12)+(K31*2)+L31+M31/12</f>
         <v>0</v>
@@ -4771,51 +4734,51 @@
         <f aca="false">IF(C5 = "DAILY", 31/365, IF(C5 = "WEEKLY", 31/52, IF(C5 = "BI-WEEKLY", O31/26, IF(C5 = "SEMI-MO", N31/2, IF(C5 = "MONTHLY", N31, IF(C5 = "ANNUAL", O31, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="150" t="n">
+      <c r="Q31" s="146" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="R31" s="145" t="n">
+      <c r="R31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="S31" s="145" t="n">
+      <c r="S31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="T31" s="145" t="n">
+      <c r="T31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="U31" s="145" t="n">
+      <c r="U31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="V31" s="145" t="n">
+      <c r="V31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="W31" s="145" t="n">
+      <c r="W31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="X31" s="145" t="n">
+      <c r="X31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="145" t="n">
+      <c r="Y31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="145" t="n">
+      <c r="Z31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="AA31" s="145" t="n">
+      <c r="AA31" s="140" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="147" t="n">
+      <c r="AB31" s="143" t="n">
         <f aca="false">N31</f>
         <v>0</v>
       </c>
@@ -4830,12 +4793,12 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="137"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="133"/>
       <c r="N32" s="74" t="n">
         <f aca="false">+(H32*30)+(I32*52/12)+(J32*26/12)+(K32*2)+L32+M32/12</f>
         <v>0</v>
@@ -4848,51 +4811,51 @@
         <f aca="false">IF(C5 = "DAILY", O32/365, IF(C5 = "WEEKLY", O32/52, IF(C5 = "BI-WEEKLY", O32/26, IF(C5 = "SEMI-MO", N32/2, IF(C5 = "MONTHLY", N32, IF(C5 = "ANNUAL", O32, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="150" t="n">
+      <c r="Q32" s="146" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="R32" s="145" t="n">
+      <c r="R32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="S32" s="145" t="n">
+      <c r="S32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="T32" s="145" t="n">
+      <c r="T32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="U32" s="145" t="n">
+      <c r="U32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="V32" s="145" t="n">
+      <c r="V32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="W32" s="145" t="n">
+      <c r="W32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="X32" s="145" t="n">
+      <c r="X32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="145" t="n">
+      <c r="Y32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="145" t="n">
+      <c r="Z32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="AA32" s="145" t="n">
+      <c r="AA32" s="140" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
-      <c r="AB32" s="147" t="n">
+      <c r="AB32" s="143" t="n">
         <f aca="false">N32</f>
         <v>0</v>
       </c>
@@ -4900,19 +4863,19 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17"/>
       <c r="B33" s="74"/>
-      <c r="C33" s="104" t="s">
+      <c r="C33" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="137"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="133"/>
       <c r="N33" s="74" t="n">
         <f aca="false">+(H33*30)+(I33*52/12)+(J33*26/12)+(K33*2)+L33+M33/12</f>
         <v>0</v>
@@ -4925,51 +4888,51 @@
         <f aca="false">IF(C5 = "DAILY", O33/365, IF(C5 = "WEEKLY", O33/52, IF(C5 = "BI-WEEKLY", O33/26, IF(C5 = "SEMI-MO", N33/2, IF(C5 = "MONTHLY", N33, IF(C5 = "ANNUAL", O33, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="150" t="n">
+      <c r="Q33" s="146" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="R33" s="145" t="n">
+      <c r="R33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="S33" s="145" t="n">
+      <c r="S33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="T33" s="145" t="n">
+      <c r="T33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="145" t="n">
+      <c r="U33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="V33" s="145" t="n">
+      <c r="V33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="W33" s="145" t="n">
+      <c r="W33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="X33" s="145" t="n">
+      <c r="X33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="145" t="n">
+      <c r="Y33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="145" t="n">
+      <c r="Z33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="AA33" s="145" t="n">
+      <c r="AA33" s="140" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
-      <c r="AB33" s="147" t="n">
+      <c r="AB33" s="143" t="n">
         <f aca="false">N33</f>
         <v>0</v>
       </c>
@@ -4984,12 +4947,12 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="137"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="133"/>
       <c r="N34" s="74" t="n">
         <f aca="false">+(H34*30)+(I34*52/12)+(J34*26/12)+(K34*2)+L34+M34/12</f>
         <v>0</v>
@@ -5002,51 +4965,51 @@
         <f aca="false">IF(C5 = "DAILY", O34/365, IF(C5 = "WEEKLY", O34/52, IF(C5 = "BI-WEEKLY", O34/26, IF(C5 = "SEMI-MO", N34/2, IF(C5 = "MONTHLY", N34, IF(C5 = "ANNUAL", O34, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="150" t="n">
+      <c r="Q34" s="146" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="R34" s="145" t="n">
+      <c r="R34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="S34" s="145" t="n">
+      <c r="S34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="T34" s="145" t="n">
+      <c r="T34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="145" t="n">
+      <c r="U34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="V34" s="145" t="n">
+      <c r="V34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="W34" s="145" t="n">
+      <c r="W34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="X34" s="145" t="n">
+      <c r="X34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="145" t="n">
+      <c r="Y34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="145" t="n">
+      <c r="Z34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="AA34" s="145" t="n">
+      <c r="AA34" s="140" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
-      <c r="AB34" s="147" t="n">
+      <c r="AB34" s="143" t="n">
         <f aca="false">N34</f>
         <v>0</v>
       </c>
@@ -5061,12 +5024,12 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="137"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="133"/>
       <c r="N35" s="74" t="n">
         <f aca="false">+(H35*30)+(I35*52/12)+(J35*26/12)+(K35*2)+L35+M35/12</f>
         <v>0</v>
@@ -5079,51 +5042,51 @@
         <f aca="false">IF(C5 = "DAILY", O35/365, IF(C5 = "WEEKLY", O35/52, IF(C5 = "BI-WEEKLY", O35/26, IF(C5 = "SEMI-MO", N35/2, IF(C5 = "MONTHLY", N35, IF(C5 = "ANNUAL", O35, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="150" t="n">
+      <c r="Q35" s="146" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="R35" s="145" t="n">
+      <c r="R35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="S35" s="145" t="n">
+      <c r="S35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="T35" s="145" t="n">
+      <c r="T35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="145" t="n">
+      <c r="U35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="V35" s="145" t="n">
+      <c r="V35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="W35" s="145" t="n">
+      <c r="W35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="X35" s="145" t="n">
+      <c r="X35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="145" t="n">
+      <c r="Y35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="Z35" s="145" t="n">
+      <c r="Z35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="AA35" s="145" t="n">
+      <c r="AA35" s="140" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="147" t="n">
+      <c r="AB35" s="143" t="n">
         <f aca="false">N35</f>
         <v>0</v>
       </c>
@@ -5138,12 +5101,12 @@
       <c r="E36" s="49"/>
       <c r="F36" s="49"/>
       <c r="G36" s="49"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="137"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="140"/>
+      <c r="M36" s="133"/>
       <c r="N36" s="73" t="n">
         <f aca="false">+(H36*30)+(I36*52/12)+(J36*26/12)+(K36*2)+L36+M36/12</f>
         <v>0</v>
@@ -5156,51 +5119,51 @@
         <f aca="false">IF(C5 = "DAILY", O36/365, IF(C5 = "WEEKLY", O36/52, IF(C5 = "BI-WEEKLY", O36/26, IF(C5 = "SEMI-MO", N36/2, IF(C5 = "MONTHLY", N36, IF(C5 = "ANNUAL", O36, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="163" t="n">
+      <c r="Q36" s="156" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="R36" s="164" t="n">
+      <c r="R36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="S36" s="164" t="n">
+      <c r="S36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="T36" s="164" t="n">
+      <c r="T36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="U36" s="164" t="n">
+      <c r="U36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="V36" s="164" t="n">
+      <c r="V36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="W36" s="164" t="n">
+      <c r="W36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="X36" s="164" t="n">
+      <c r="X36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="164" t="n">
+      <c r="Y36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="164" t="n">
+      <c r="Z36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="164" t="n">
+      <c r="AA36" s="157" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
-      <c r="AB36" s="138" t="n">
+      <c r="AB36" s="134" t="n">
         <f aca="false">N36</f>
         <v>0</v>
       </c>
@@ -5221,63 +5184,63 @@
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="165" t="n">
+      <c r="N37" s="158" t="n">
         <f aca="false">SUM(N27:N36)</f>
         <v>0</v>
       </c>
-      <c r="O37" s="141" t="n">
+      <c r="O37" s="137" t="n">
         <f aca="false">SUM(O27:O36)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="166" t="n">
+      <c r="P37" s="159" t="n">
         <f aca="false">SUM(P27:P36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="165" t="n">
+      <c r="Q37" s="158" t="n">
         <f aca="false">SUM(Q27:Q36)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="165" t="n">
+      <c r="R37" s="158" t="n">
         <f aca="false">SUM(R27:R36)</f>
         <v>0</v>
       </c>
-      <c r="S37" s="165" t="n">
+      <c r="S37" s="158" t="n">
         <f aca="false">SUM(S27:S36)</f>
         <v>0</v>
       </c>
-      <c r="T37" s="165" t="n">
+      <c r="T37" s="158" t="n">
         <f aca="false">SUM(T27:T36)</f>
         <v>0</v>
       </c>
-      <c r="U37" s="165" t="n">
+      <c r="U37" s="158" t="n">
         <f aca="false">SUM(U27:U36)</f>
         <v>0</v>
       </c>
-      <c r="V37" s="165" t="n">
+      <c r="V37" s="158" t="n">
         <f aca="false">SUM(V27:V36)</f>
         <v>0</v>
       </c>
-      <c r="W37" s="165" t="n">
+      <c r="W37" s="158" t="n">
         <f aca="false">SUM(W27:W36)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="165" t="n">
+      <c r="X37" s="158" t="n">
         <f aca="false">SUM(X27:X36)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="165" t="n">
+      <c r="Y37" s="158" t="n">
         <f aca="false">SUM(Y27:Y36)</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="165" t="n">
+      <c r="Z37" s="158" t="n">
         <f aca="false">SUM(Z27:Z36)</f>
         <v>0</v>
       </c>
-      <c r="AA37" s="165" t="n">
+      <c r="AA37" s="158" t="n">
         <f aca="false">SUM(AA27:AA36)</f>
         <v>0</v>
       </c>
-      <c r="AB37" s="165" t="n">
+      <c r="AB37" s="158" t="n">
         <f aca="false">SUM(AB27:AB36)</f>
         <v>0</v>
       </c>
@@ -5322,7 +5285,7 @@
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="133"/>
+      <c r="H39" s="74"/>
       <c r="I39" s="17"/>
       <c r="J39" s="17"/>
       <c r="K39" s="17"/>
@@ -5356,12 +5319,12 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="145"/>
-      <c r="M40" s="137"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="140"/>
+      <c r="M40" s="133"/>
       <c r="N40" s="74" t="n">
         <f aca="false">+(H40*30)+(I40*52/12)+(J40*26/12)+(K40*2)+L40+M40/12</f>
         <v>0</v>
@@ -5374,51 +5337,51 @@
         <f aca="false">IF(C5 = "DAILY", O40/365, IF(C5 = "WEEKLY", O40/52, IF(C5 = "BI-WEEKLY", O40/26, IF(C5 = "SEMI-MO", N40/2, IF(C5 = "MONTHLY", N40, IF(C5 = "ANNUAL", O40, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="150" t="n">
+      <c r="Q40" s="146" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="R40" s="145" t="n">
+      <c r="R40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="S40" s="145" t="n">
+      <c r="S40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="T40" s="145" t="n">
+      <c r="T40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="U40" s="145" t="n">
+      <c r="U40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="V40" s="145" t="n">
+      <c r="V40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="W40" s="145" t="n">
+      <c r="W40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="X40" s="145" t="n">
+      <c r="X40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="145" t="n">
+      <c r="Y40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="145" t="n">
+      <c r="Z40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="145" t="n">
+      <c r="AA40" s="140" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
-      <c r="AB40" s="147" t="n">
+      <c r="AB40" s="143" t="n">
         <f aca="false">N40</f>
         <v>0</v>
       </c>
@@ -5435,12 +5398,12 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
-      <c r="M41" s="137"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
+      <c r="M41" s="133"/>
       <c r="N41" s="74" t="n">
         <f aca="false">+(H41*30)+(I41*52/12)+(J41*26/12)+(K41*2)+L41+M41/12</f>
         <v>0</v>
@@ -5453,51 +5416,51 @@
         <f aca="false">IF(C5 = "DAILY", O41/365, IF(C5 = "WEEKLY", O41/52, IF(C5 = "BI-WEEKLY", O41/26, IF(C5 = "SEMI-MO", N41/2, IF(C5 = "MONTHLY", N41, IF(C5 = "ANNUAL", O41, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="150" t="n">
+      <c r="Q41" s="146" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="R41" s="145" t="n">
+      <c r="R41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="S41" s="145" t="n">
+      <c r="S41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="T41" s="145" t="n">
+      <c r="T41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="U41" s="145" t="n">
+      <c r="U41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="V41" s="145" t="n">
+      <c r="V41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="W41" s="145" t="n">
+      <c r="W41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="X41" s="145" t="n">
+      <c r="X41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="145" t="n">
+      <c r="Y41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="145" t="n">
+      <c r="Z41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="145" t="n">
+      <c r="AA41" s="140" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
-      <c r="AB41" s="147" t="n">
+      <c r="AB41" s="143" t="n">
         <f aca="false">N41</f>
         <v>0</v>
       </c>
@@ -5514,12 +5477,12 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
-      <c r="M42" s="137"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="133"/>
       <c r="N42" s="74" t="n">
         <f aca="false">+(H42*30)+(I42*52/12)+(J42*26/12)+(K42*2)+L42+M42/12</f>
         <v>0</v>
@@ -5532,51 +5495,51 @@
         <f aca="false">IF(C5 = "DAILY", O42/365, IF(C5 = "WEEKLY", O42/52, IF(C5 = "BI-WEEKLY", O42/26, IF(C5 = "SEMI-MO", N42/2, IF(C5 = "MONTHLY", N42, IF(C5 = "ANNUAL", O42, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="150" t="n">
+      <c r="Q42" s="146" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="R42" s="145" t="n">
+      <c r="R42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="S42" s="145" t="n">
+      <c r="S42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="T42" s="145" t="n">
+      <c r="T42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="U42" s="145" t="n">
+      <c r="U42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="V42" s="145" t="n">
+      <c r="V42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="W42" s="145" t="n">
+      <c r="W42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="X42" s="145" t="n">
+      <c r="X42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="Y42" s="145" t="n">
+      <c r="Y42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="Z42" s="145" t="n">
+      <c r="Z42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="145" t="n">
+      <c r="AA42" s="140" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
-      <c r="AB42" s="147" t="n">
+      <c r="AB42" s="143" t="n">
         <f aca="false">N42</f>
         <v>0</v>
       </c>
@@ -5593,12 +5556,12 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="137"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="133"/>
       <c r="N43" s="74" t="n">
         <f aca="false">+(H43*30)+(I43*52/12)+(J43*26/12)+(K43*2)+L43+M43/12</f>
         <v>0</v>
@@ -5611,51 +5574,51 @@
         <f aca="false">IF(C5 = "DAILY", O43/365, IF(C5 = "WEEKLY", O43/52, IF(C5 = "BI-WEEKLY", O43/26, IF(C5 = "SEMI-MO", N43/2, IF(C5 = "MONTHLY", N43, IF(C5 = "ANNUAL", O43, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="150" t="n">
+      <c r="Q43" s="146" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="R43" s="145" t="n">
+      <c r="R43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="S43" s="145" t="n">
+      <c r="S43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="T43" s="145" t="n">
+      <c r="T43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="U43" s="145" t="n">
+      <c r="U43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="V43" s="145" t="n">
+      <c r="V43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="W43" s="145" t="n">
+      <c r="W43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="X43" s="145" t="n">
+      <c r="X43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="Y43" s="145" t="n">
+      <c r="Y43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="Z43" s="145" t="n">
+      <c r="Z43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="145" t="n">
+      <c r="AA43" s="140" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
-      <c r="AB43" s="147" t="n">
+      <c r="AB43" s="143" t="n">
         <f aca="false">N43</f>
         <v>0</v>
       </c>
@@ -5672,12 +5635,12 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="145"/>
-      <c r="M44" s="137"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="140"/>
+      <c r="M44" s="133"/>
       <c r="N44" s="74" t="n">
         <f aca="false">+(H44*30)+(I44*52/12)+(J44*26/12)+(K44*2)+L44+M44/12</f>
         <v>0</v>
@@ -5690,51 +5653,51 @@
         <f aca="false">IF(C5 = "DAILY", O44/365, IF(C5 = "WEEKLY", O44/52, IF(C5 = "BI-WEEKLY", O44/26, IF(C5 = "SEMI-MO", N44/2, IF(C5 = "MONTHLY", N44, IF(C5 = "ANNUAL", O44, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="150" t="n">
+      <c r="Q44" s="146" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="R44" s="145" t="n">
+      <c r="R44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="S44" s="145" t="n">
+      <c r="S44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="T44" s="145" t="n">
+      <c r="T44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="U44" s="145" t="n">
+      <c r="U44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="V44" s="145" t="n">
+      <c r="V44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="W44" s="145" t="n">
+      <c r="W44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="X44" s="145" t="n">
+      <c r="X44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="145" t="n">
+      <c r="Y44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="Z44" s="145" t="n">
+      <c r="Z44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="145" t="n">
+      <c r="AA44" s="140" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
-      <c r="AB44" s="147" t="n">
+      <c r="AB44" s="143" t="n">
         <f aca="false">N44</f>
         <v>0</v>
       </c>
@@ -5751,12 +5714,12 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
-      <c r="M45" s="137"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="133"/>
       <c r="N45" s="74" t="n">
         <f aca="false">+(H45*30)+(I45*52/12)+(J45*26/12)+(K45*2)+L45+M45/12</f>
         <v>0</v>
@@ -5769,73 +5732,73 @@
         <f aca="false">IF(C5 = "DAILY", O45/365, IF(C5 = "WEEKLY", O45/52, IF(C5 = "BI-WEEKLY", O45/26, IF(C5 = "SEMI-MO", N45/2, IF(C5 = "MONTHLY", N45, IF(C5 = "ANNUAL", O45, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="150" t="n">
+      <c r="Q45" s="146" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="R45" s="145" t="n">
+      <c r="R45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="S45" s="145" t="n">
+      <c r="S45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="T45" s="145" t="n">
+      <c r="T45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="U45" s="145" t="n">
+      <c r="U45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="V45" s="145" t="n">
+      <c r="V45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="W45" s="145" t="n">
+      <c r="W45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="X45" s="145" t="n">
+      <c r="X45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="Y45" s="145" t="n">
+      <c r="Y45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="Z45" s="145" t="n">
+      <c r="Z45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="145" t="n">
+      <c r="AA45" s="140" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
-      <c r="AB45" s="147" t="n">
+      <c r="AB45" s="143" t="n">
         <f aca="false">N45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="17"/>
-      <c r="B46" s="133" t="n">
+      <c r="B46" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="C46" s="104" t="s">
+      <c r="C46" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="145"/>
-      <c r="M46" s="137"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="140"/>
+      <c r="M46" s="133"/>
       <c r="N46" s="74" t="n">
         <f aca="false">+(H46*30)+(I46*52/12)+(J46*26/12)+(K46*2)+L46+M46/12</f>
         <v>0</v>
@@ -5848,73 +5811,73 @@
         <f aca="false">IF(C5 = "DAILY", O46/365, IF(C5 = "WEEKLY", O46/52, IF(C5 = "BI-WEEKLY", O46/26, IF(C5 = "SEMI-MO", N46/2, IF(C5 = "MONTHLY", N46, IF(C5 = "ANNUAL", O46, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="150" t="n">
+      <c r="Q46" s="146" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="R46" s="145" t="n">
+      <c r="R46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="S46" s="145" t="n">
+      <c r="S46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="T46" s="145" t="n">
+      <c r="T46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="U46" s="145" t="n">
+      <c r="U46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="V46" s="145" t="n">
+      <c r="V46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="W46" s="145" t="n">
+      <c r="W46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="X46" s="145" t="n">
+      <c r="X46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="145" t="n">
+      <c r="Y46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="145" t="n">
+      <c r="Z46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="145" t="n">
+      <c r="AA46" s="140" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
-      <c r="AB46" s="147" t="n">
+      <c r="AB46" s="143" t="n">
         <f aca="false">N46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
-      <c r="B47" s="133" t="n">
+      <c r="B47" s="74" t="n">
         <v>8</v>
       </c>
-      <c r="C47" s="104" t="s">
+      <c r="C47" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="137"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="133"/>
       <c r="N47" s="74" t="n">
         <f aca="false">+(H47*30)+(I47*52/12)+(J47*26/12)+(K47*2)+L47+M47/12</f>
         <v>0</v>
@@ -5927,51 +5890,51 @@
         <f aca="false">IF(C5 = "DAILY", O47/365, IF(C5 = "WEEKLY", O47/52, IF(C5 = "BI-WEEKLY", O47/26, IF(C5 = "SEMI-MO", N47/2, IF(C5 = "MONTHLY", N47, IF(C5 = "ANNUAL", O47, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="150" t="n">
+      <c r="Q47" s="146" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="R47" s="145" t="n">
+      <c r="R47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="S47" s="145" t="n">
+      <c r="S47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="T47" s="145" t="n">
+      <c r="T47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="U47" s="145" t="n">
+      <c r="U47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="V47" s="145" t="n">
+      <c r="V47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="W47" s="145" t="n">
+      <c r="W47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="X47" s="145" t="n">
+      <c r="X47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="145" t="n">
+      <c r="Y47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="145" t="n">
+      <c r="Z47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="145" t="n">
+      <c r="AA47" s="140" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="147" t="n">
+      <c r="AB47" s="143" t="n">
         <f aca="false">N47</f>
         <v>0</v>
       </c>
@@ -5988,12 +5951,12 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="145"/>
-      <c r="K48" s="145"/>
-      <c r="L48" s="145"/>
-      <c r="M48" s="137"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="140"/>
+      <c r="J48" s="140"/>
+      <c r="K48" s="140"/>
+      <c r="L48" s="140"/>
+      <c r="M48" s="133"/>
       <c r="N48" s="74" t="n">
         <f aca="false">+(H48*30)+(I48*52/12)+(J48*26/12)+(K48*2)+L48+M48/12</f>
         <v>0</v>
@@ -6006,51 +5969,51 @@
         <f aca="false">IF(C5 = "DAILY", O48/365, IF(C5 = "WEEKLY", O48/52, IF(C5 = "BI-WEEKLY", O48/26, IF(C5 = "SEMI-MO", N48/2, IF(C5 = "MONTHLY", N48, IF(C5 = "ANNUAL", O48, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="150" t="n">
+      <c r="Q48" s="146" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="R48" s="145" t="n">
+      <c r="R48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="S48" s="145" t="n">
+      <c r="S48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="T48" s="145" t="n">
+      <c r="T48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="U48" s="145" t="n">
+      <c r="U48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="V48" s="145" t="n">
+      <c r="V48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="W48" s="145" t="n">
+      <c r="W48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="X48" s="145" t="n">
+      <c r="X48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="145" t="n">
+      <c r="Y48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="Z48" s="145" t="n">
+      <c r="Z48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="145" t="n">
+      <c r="AA48" s="140" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
-      <c r="AB48" s="147" t="n">
+      <c r="AB48" s="143" t="n">
         <f aca="false">N48</f>
         <v>0</v>
       </c>
@@ -6067,12 +6030,12 @@
       <c r="E49" s="49"/>
       <c r="F49" s="49"/>
       <c r="G49" s="49"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="137"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="140"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="140"/>
+      <c r="L49" s="140"/>
+      <c r="M49" s="133"/>
       <c r="N49" s="73" t="n">
         <f aca="false">+(H49*30)+(I49*52/12)+(J49*26/12)+(K49*2)+L49+M49/12</f>
         <v>0</v>
@@ -6085,51 +6048,51 @@
         <f aca="false">IF(C5 = "DAILY", O49/365, IF(C5 = "WEEKLY", O49/52, IF(C5 = "BI-WEEKLY", O49/26, IF(C5 = "SEMI-MO", N49/2, IF(C5 = "MONTHLY", N49, IF(C5 = "ANNUAL", O49, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="163" t="n">
+      <c r="Q49" s="156" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="R49" s="164" t="n">
+      <c r="R49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="S49" s="164" t="n">
+      <c r="S49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="T49" s="164" t="n">
+      <c r="T49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="U49" s="164" t="n">
+      <c r="U49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="V49" s="164" t="n">
+      <c r="V49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="W49" s="164" t="n">
+      <c r="W49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="X49" s="164" t="n">
+      <c r="X49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="Y49" s="164" t="n">
+      <c r="Y49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="164" t="n">
+      <c r="Z49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="164" t="n">
+      <c r="AA49" s="157" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
-      <c r="AB49" s="138" t="n">
+      <c r="AB49" s="134" t="n">
         <f aca="false">N49</f>
         <v>0</v>
       </c>
@@ -6150,63 +6113,63 @@
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="165" t="n">
+      <c r="N50" s="158" t="n">
         <f aca="false">SUM(N40:N49)</f>
         <v>0</v>
       </c>
-      <c r="O50" s="141" t="n">
+      <c r="O50" s="137" t="n">
         <f aca="false">SUM(O40:O49)</f>
         <v>0</v>
       </c>
-      <c r="P50" s="166" t="n">
+      <c r="P50" s="159" t="n">
         <f aca="false">SUM(P40:P49)</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="165" t="n">
+      <c r="Q50" s="158" t="n">
         <f aca="false">SUM(Q40:Q49)</f>
         <v>0</v>
       </c>
-      <c r="R50" s="165" t="n">
+      <c r="R50" s="158" t="n">
         <f aca="false">SUM(R40:R49)</f>
         <v>0</v>
       </c>
-      <c r="S50" s="165" t="n">
+      <c r="S50" s="158" t="n">
         <f aca="false">SUM(S40:S49)</f>
         <v>0</v>
       </c>
-      <c r="T50" s="165" t="n">
+      <c r="T50" s="158" t="n">
         <f aca="false">SUM(T40:T49)</f>
         <v>0</v>
       </c>
-      <c r="U50" s="165" t="n">
+      <c r="U50" s="158" t="n">
         <f aca="false">SUM(U40:U49)</f>
         <v>0</v>
       </c>
-      <c r="V50" s="165" t="n">
+      <c r="V50" s="158" t="n">
         <f aca="false">SUM(V40:V49)</f>
         <v>0</v>
       </c>
-      <c r="W50" s="165" t="n">
+      <c r="W50" s="158" t="n">
         <f aca="false">SUM(W40:W49)</f>
         <v>0</v>
       </c>
-      <c r="X50" s="165" t="n">
+      <c r="X50" s="158" t="n">
         <f aca="false">SUM(X40:X49)</f>
         <v>0</v>
       </c>
-      <c r="Y50" s="165" t="n">
+      <c r="Y50" s="158" t="n">
         <f aca="false">SUM(Y40:Y49)</f>
         <v>0</v>
       </c>
-      <c r="Z50" s="165" t="n">
+      <c r="Z50" s="158" t="n">
         <f aca="false">SUM(Z40:Z49)</f>
         <v>0</v>
       </c>
-      <c r="AA50" s="165" t="n">
+      <c r="AA50" s="158" t="n">
         <f aca="false">SUM(AA40:AA49)</f>
         <v>0</v>
       </c>
-      <c r="AB50" s="165" t="n">
+      <c r="AB50" s="158" t="n">
         <f aca="false">SUM(AB40:AB49)</f>
         <v>0</v>
       </c>
@@ -6285,12 +6248,12 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="137"/>
+      <c r="H53" s="146"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
+      <c r="K53" s="140"/>
+      <c r="L53" s="140"/>
+      <c r="M53" s="133"/>
       <c r="N53" s="74" t="n">
         <f aca="false">+(H53*30)+(I53*52/12)+(J53*26/12)+(K53*2)+L53+M53/12</f>
         <v>0</v>
@@ -6303,51 +6266,51 @@
         <f aca="false">IF(C5 = "DAILY", O53/365, IF(C5 = "WEEKLY", O53/52, IF(C5 = "BI-WEEKLY", O53/26, IF(C5 = "SEMI-MO", N53/2, IF(C5 = "MONTHLY", N53, IF(C5 = "ANNUAL", O53, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="150" t="n">
+      <c r="Q53" s="146" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="R53" s="145" t="n">
+      <c r="R53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="S53" s="145" t="n">
+      <c r="S53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="T53" s="145" t="n">
+      <c r="T53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="U53" s="145" t="n">
+      <c r="U53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="V53" s="145" t="n">
+      <c r="V53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="W53" s="145" t="n">
+      <c r="W53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="X53" s="145" t="n">
+      <c r="X53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="Y53" s="145" t="n">
+      <c r="Y53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="Z53" s="145" t="n">
+      <c r="Z53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="AA53" s="145" t="n">
+      <c r="AA53" s="140" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
-      <c r="AB53" s="147" t="n">
+      <c r="AB53" s="143" t="n">
         <f aca="false">N53</f>
         <v>0</v>
       </c>
@@ -6364,12 +6327,12 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="145"/>
-      <c r="K54" s="145"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="137"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="133"/>
       <c r="N54" s="74" t="n">
         <f aca="false">+(H54*30)+(I54*52/12)+(J54*26/12)+(K54*2)+L54+M54/12</f>
         <v>0</v>
@@ -6382,51 +6345,51 @@
         <f aca="false">IF(C5 = "DAILY", O54/365, IF(C5 = "WEEKLY", O54/52, IF(C5 = "BI-WEEKLY", O54/26, IF(C5 = "SEMI-MO", N54/2, IF(C5 = "MONTHLY", N54, IF(C5 = "ANNUAL", O54, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="150" t="n">
+      <c r="Q54" s="146" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="R54" s="145" t="n">
+      <c r="R54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="S54" s="145" t="n">
+      <c r="S54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="T54" s="145" t="n">
+      <c r="T54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="U54" s="145" t="n">
+      <c r="U54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="V54" s="145" t="n">
+      <c r="V54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="W54" s="145" t="n">
+      <c r="W54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="X54" s="145" t="n">
+      <c r="X54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="Y54" s="145" t="n">
+      <c r="Y54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="Z54" s="145" t="n">
+      <c r="Z54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="AA54" s="145" t="n">
+      <c r="AA54" s="140" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
-      <c r="AB54" s="147" t="n">
+      <c r="AB54" s="143" t="n">
         <f aca="false">N54</f>
         <v>0</v>
       </c>
@@ -6443,12 +6406,12 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
-      <c r="K55" s="145"/>
-      <c r="L55" s="145"/>
-      <c r="M55" s="137"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="140"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="133"/>
       <c r="N55" s="74" t="n">
         <f aca="false">+(H55*30)+(I55*52/12)+(J55*26/12)+(K55*2)+L55+M55/12</f>
         <v>0</v>
@@ -6461,51 +6424,51 @@
         <f aca="false">IF(C5 = "DAILY", O55/365, IF(C5 = "WEEKLY", O55/52, IF(C5 = "BI-WEEKLY", O55/26, IF(C5 = "SEMI-MO", N55/2, IF(C5 = "MONTHLY", N55, IF(C5 = "ANNUAL", O55, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="150" t="n">
+      <c r="Q55" s="146" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="R55" s="145" t="n">
+      <c r="R55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="S55" s="145" t="n">
+      <c r="S55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="T55" s="145" t="n">
+      <c r="T55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="U55" s="145" t="n">
+      <c r="U55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="V55" s="145" t="n">
+      <c r="V55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="W55" s="145" t="n">
+      <c r="W55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="X55" s="145" t="n">
+      <c r="X55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="Y55" s="145" t="n">
+      <c r="Y55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="Z55" s="145" t="n">
+      <c r="Z55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="AA55" s="145" t="n">
+      <c r="AA55" s="140" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
-      <c r="AB55" s="147" t="n">
+      <c r="AB55" s="143" t="n">
         <f aca="false">N55</f>
         <v>0</v>
       </c>
@@ -6522,12 +6485,12 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
-      <c r="M56" s="137"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="140"/>
+      <c r="L56" s="140"/>
+      <c r="M56" s="133"/>
       <c r="N56" s="74" t="n">
         <f aca="false">+(H56*30)+(I56*52/12)+(J56*26/12)+(K56*2)+L56+M56/12</f>
         <v>0</v>
@@ -6540,51 +6503,51 @@
         <f aca="false">IF(C5 = "DAILY", O56/365, IF(C5 = "WEEKLY", O56/52, IF(C5 = "BI-WEEKLY", O56/26, IF(C5 = "SEMI-MO", N56/2, IF(C5 = "MONTHLY", N56, IF(C5 = "ANNUAL", O56, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="150" t="n">
+      <c r="Q56" s="146" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="R56" s="145" t="n">
+      <c r="R56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="S56" s="145" t="n">
+      <c r="S56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="T56" s="145" t="n">
+      <c r="T56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="U56" s="145" t="n">
+      <c r="U56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="V56" s="145" t="n">
+      <c r="V56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="W56" s="145" t="n">
+      <c r="W56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="X56" s="145" t="n">
+      <c r="X56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="Y56" s="145" t="n">
+      <c r="Y56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="Z56" s="145" t="n">
+      <c r="Z56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="AA56" s="145" t="n">
+      <c r="AA56" s="140" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
-      <c r="AB56" s="147" t="n">
+      <c r="AB56" s="143" t="n">
         <f aca="false">N56</f>
         <v>0</v>
       </c>
@@ -6601,12 +6564,12 @@
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
-      <c r="M57" s="137"/>
+      <c r="H57" s="146"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="140"/>
+      <c r="K57" s="140"/>
+      <c r="L57" s="140"/>
+      <c r="M57" s="133"/>
       <c r="N57" s="73" t="n">
         <f aca="false">+(H57*30)+(I57*52/12)+(J57*26/12)+(K57*2)+L57+M57/12</f>
         <v>0</v>
@@ -6619,58 +6582,58 @@
         <f aca="false">IF(C5 = "DAILY", H57, IF(C5 = "WEEKLY", I57, IF(C5 = "BI-WEEKLY", J57, IF(C5 = "SEMI-MO", K57, IF(C5 = "MONTHLY", L57, IF(C5 = "ANNUAL", M57, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="163" t="n">
+      <c r="Q57" s="156" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="R57" s="164" t="n">
+      <c r="R57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="S57" s="164" t="n">
+      <c r="S57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="T57" s="164" t="n">
+      <c r="T57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="U57" s="164" t="n">
+      <c r="U57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="V57" s="164" t="n">
+      <c r="V57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="W57" s="164" t="n">
+      <c r="W57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="X57" s="164" t="n">
+      <c r="X57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="Y57" s="164" t="n">
+      <c r="Y57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="Z57" s="164" t="n">
+      <c r="Z57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="164" t="n">
+      <c r="AA57" s="157" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
-      <c r="AB57" s="138" t="n">
+      <c r="AB57" s="134" t="n">
         <f aca="false">N57</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="B58" s="104"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
@@ -6684,63 +6647,63 @@
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="165" t="n">
+      <c r="N58" s="158" t="n">
         <f aca="false">SUM(N53:N57)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="165" t="n">
+      <c r="O58" s="158" t="n">
         <f aca="false">SUM(O53:O57)</f>
         <v>0</v>
       </c>
-      <c r="P58" s="165" t="n">
+      <c r="P58" s="158" t="n">
         <f aca="false">SUM(P53:P57)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="165" t="n">
+      <c r="Q58" s="158" t="n">
         <f aca="false">SUM(Q53:Q57)</f>
         <v>0</v>
       </c>
-      <c r="R58" s="165" t="n">
+      <c r="R58" s="158" t="n">
         <f aca="false">SUM(R53:R57)</f>
         <v>0</v>
       </c>
-      <c r="S58" s="165" t="n">
+      <c r="S58" s="158" t="n">
         <f aca="false">SUM(S53:S57)</f>
         <v>0</v>
       </c>
-      <c r="T58" s="165" t="n">
+      <c r="T58" s="158" t="n">
         <f aca="false">SUM(T53:T57)</f>
         <v>0</v>
       </c>
-      <c r="U58" s="165" t="n">
+      <c r="U58" s="158" t="n">
         <f aca="false">SUM(U53:U57)</f>
         <v>0</v>
       </c>
-      <c r="V58" s="165" t="n">
+      <c r="V58" s="158" t="n">
         <f aca="false">SUM(V53:V57)</f>
         <v>0</v>
       </c>
-      <c r="W58" s="165" t="n">
+      <c r="W58" s="158" t="n">
         <f aca="false">SUM(W53:W57)</f>
         <v>0</v>
       </c>
-      <c r="X58" s="165" t="n">
+      <c r="X58" s="158" t="n">
         <f aca="false">SUM(X53:X57)</f>
         <v>0</v>
       </c>
-      <c r="Y58" s="165" t="n">
+      <c r="Y58" s="158" t="n">
         <f aca="false">SUM(Y53:Y57)</f>
         <v>0</v>
       </c>
-      <c r="Z58" s="165" t="n">
+      <c r="Z58" s="158" t="n">
         <f aca="false">SUM(Z53:Z57)</f>
         <v>0</v>
       </c>
-      <c r="AA58" s="165" t="n">
+      <c r="AA58" s="158" t="n">
         <f aca="false">SUM(AA53:AA57)</f>
         <v>0</v>
       </c>
-      <c r="AB58" s="165" t="n">
+      <c r="AB58" s="158" t="n">
         <f aca="false">SUM(AB53:AB57)</f>
         <v>0</v>
       </c>
@@ -6809,20 +6772,20 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="104" t="s">
+      <c r="B61" s="74"/>
+      <c r="C61" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="104"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="145"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="145"/>
-      <c r="M61" s="137"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="133"/>
       <c r="N61" s="74" t="n">
         <f aca="false">+(H61*30)+(I61*52/12)+(J61*26/12)+(K61*2)+L61+M61/12</f>
         <v>0</v>
@@ -6835,51 +6798,51 @@
         <f aca="false">IF(C5 = "DAILY", O61/365, IF(C5 = "WEEKLY", O61/52, IF(C5 = "BI-WEEKLY", O61/26, IF(C5 = "SEMI-MO", N61/2, IF(C5 = "MONTHLY", N61, IF(C5 = "ANNUAL", O61, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="150" t="n">
+      <c r="Q61" s="146" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="R61" s="145" t="n">
+      <c r="R61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="S61" s="145" t="n">
+      <c r="S61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="T61" s="145" t="n">
+      <c r="T61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="U61" s="145" t="n">
+      <c r="U61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="V61" s="145" t="n">
+      <c r="V61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="W61" s="145" t="n">
+      <c r="W61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="X61" s="145" t="n">
+      <c r="X61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="Y61" s="145" t="n">
+      <c r="Y61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="Z61" s="145" t="n">
+      <c r="Z61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="AA61" s="145" t="n">
+      <c r="AA61" s="140" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
-      <c r="AB61" s="147" t="n">
+      <c r="AB61" s="143" t="n">
         <f aca="false">N61</f>
         <v>0</v>
       </c>
@@ -6894,12 +6857,12 @@
       <c r="E62" s="17"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="145"/>
-      <c r="J62" s="145"/>
-      <c r="K62" s="145"/>
-      <c r="L62" s="145"/>
-      <c r="M62" s="137"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="133"/>
       <c r="N62" s="74" t="n">
         <f aca="false">+(H62*30)+(I62*52/12)+(J62*26/12)+(K62*2)+L62+M62/12</f>
         <v>0</v>
@@ -6912,51 +6875,51 @@
         <f aca="false">IF(C5 = "DAILY", O62/365, IF(C5 = "WEEKLY", O62/52, IF(C5 = "BI-WEEKLY", O62/26, IF(C5 = "SEMI-MO", N62/2, IF(C5 = "MONTHLY", N62, IF(C5 = "ANNUAL", O62, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="150" t="n">
+      <c r="Q62" s="146" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="R62" s="145" t="n">
+      <c r="R62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="S62" s="145" t="n">
+      <c r="S62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="T62" s="145" t="n">
+      <c r="T62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="U62" s="145" t="n">
+      <c r="U62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="V62" s="145" t="n">
+      <c r="V62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="W62" s="145" t="n">
+      <c r="W62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="X62" s="145" t="n">
+      <c r="X62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="Y62" s="145" t="n">
+      <c r="Y62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="Z62" s="145" t="n">
+      <c r="Z62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="AA62" s="145" t="n">
+      <c r="AA62" s="140" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
-      <c r="AB62" s="147" t="n">
+      <c r="AB62" s="143" t="n">
         <f aca="false">N62</f>
         <v>0</v>
       </c>
@@ -6971,12 +6934,12 @@
       <c r="E63" s="17"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="145"/>
-      <c r="J63" s="145"/>
-      <c r="K63" s="145"/>
-      <c r="L63" s="145"/>
-      <c r="M63" s="137"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="140"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="133"/>
       <c r="N63" s="74" t="n">
         <f aca="false">+(H63*30)+(I63*52/12)+(J63*26/12)+(K63*2)+L63+M63/12</f>
         <v>0</v>
@@ -6989,51 +6952,51 @@
         <f aca="false">IF(C5 = "DAILY", O63/365, IF(C5 = "WEEKLY", O63/52, IF(C5 = "BI-WEEKLY", O63/26, IF(C5 = "SEMI-MO", N63/2, IF(C5 = "MONTHLY", N63, IF(C5 = "ANNUAL", O63, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="150" t="n">
+      <c r="Q63" s="146" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="R63" s="145" t="n">
+      <c r="R63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="S63" s="145" t="n">
+      <c r="S63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="T63" s="145" t="n">
+      <c r="T63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="U63" s="145" t="n">
+      <c r="U63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="V63" s="145" t="n">
+      <c r="V63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="W63" s="145" t="n">
+      <c r="W63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="X63" s="145" t="n">
+      <c r="X63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="Y63" s="145" t="n">
+      <c r="Y63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="Z63" s="145" t="n">
+      <c r="Z63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="AA63" s="145" t="n">
+      <c r="AA63" s="140" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
-      <c r="AB63" s="147" t="n">
+      <c r="AB63" s="143" t="n">
         <f aca="false">N63</f>
         <v>0</v>
       </c>
@@ -7048,12 +7011,12 @@
       <c r="E64" s="17"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="145"/>
-      <c r="K64" s="145"/>
-      <c r="L64" s="145"/>
-      <c r="M64" s="137"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="133"/>
       <c r="N64" s="74" t="n">
         <f aca="false">+(H64*30)+(I64*52/12)+(J64*26/12)+(K64*2)+L64+M64/12</f>
         <v>0</v>
@@ -7066,51 +7029,51 @@
         <f aca="false">IF(C5 = "DAILY", O64/365, IF(C5 = "WEEKLY", O64/52, IF(C5 = "BI-WEEKLY", O64/26, IF(C5 = "SEMI-MO", N64/2, IF(C5 = "MONTHLY", N64, IF(C5 = "ANNUAL", O64, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="150" t="n">
+      <c r="Q64" s="146" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="R64" s="145" t="n">
+      <c r="R64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="S64" s="145" t="n">
+      <c r="S64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="T64" s="145" t="n">
+      <c r="T64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="U64" s="145" t="n">
+      <c r="U64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="V64" s="145" t="n">
+      <c r="V64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="W64" s="145" t="n">
+      <c r="W64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="X64" s="145" t="n">
+      <c r="X64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="Y64" s="145" t="n">
+      <c r="Y64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="Z64" s="145" t="n">
+      <c r="Z64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="AA64" s="145" t="n">
+      <c r="AA64" s="140" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
-      <c r="AB64" s="147" t="n">
+      <c r="AB64" s="143" t="n">
         <f aca="false">N64</f>
         <v>0</v>
       </c>
@@ -7125,12 +7088,12 @@
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="145"/>
-      <c r="J65" s="145"/>
-      <c r="K65" s="145"/>
-      <c r="L65" s="145"/>
-      <c r="M65" s="137"/>
+      <c r="H65" s="146"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="140"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="133"/>
       <c r="N65" s="74" t="n">
         <f aca="false">+(H65*30)+(I65*52/12)+(J65*26/12)+(K65*2)+L65+M65/12</f>
         <v>0</v>
@@ -7143,51 +7106,51 @@
         <f aca="false">IF(C5 = "DAILY", O65/365, IF(C5 = "WEEKLY", O65/52, IF(C5 = "BI-WEEKLY", O65/26, IF(C5 = "SEMI-MO", N65/2, IF(C5 = "MONTHLY", N65, IF(C5 = "ANNUAL", O65, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="150" t="n">
+      <c r="Q65" s="146" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="R65" s="145" t="n">
+      <c r="R65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="S65" s="145" t="n">
+      <c r="S65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="T65" s="145" t="n">
+      <c r="T65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="U65" s="145" t="n">
+      <c r="U65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="V65" s="145" t="n">
+      <c r="V65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="W65" s="145" t="n">
+      <c r="W65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="X65" s="145" t="n">
+      <c r="X65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="Y65" s="145" t="n">
+      <c r="Y65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="Z65" s="145" t="n">
+      <c r="Z65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="AA65" s="145" t="n">
+      <c r="AA65" s="140" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
-      <c r="AB65" s="147" t="n">
+      <c r="AB65" s="143" t="n">
         <f aca="false">N65</f>
         <v>0</v>
       </c>
@@ -7202,12 +7165,12 @@
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="145"/>
-      <c r="J66" s="145"/>
-      <c r="K66" s="145"/>
-      <c r="L66" s="145"/>
-      <c r="M66" s="137"/>
+      <c r="H66" s="146"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="133"/>
       <c r="N66" s="74" t="n">
         <f aca="false">+(H66*30)+(I66*52/12)+(J66*26/12)+(K66*2)+L66+M66/12</f>
         <v>0</v>
@@ -7220,51 +7183,51 @@
         <f aca="false">IF(C5 = "DAILY", O66/365, IF(C5 = "WEEKLY", O66/52, IF(C5 = "BI-WEEKLY", O66/26, IF(C5 = "SEMI-MO", N66/2, IF(C5 = "MONTHLY", N66, IF(C5 = "ANNUAL", O66, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="150" t="n">
+      <c r="Q66" s="146" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="R66" s="145" t="n">
+      <c r="R66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="S66" s="145" t="n">
+      <c r="S66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="T66" s="145" t="n">
+      <c r="T66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="U66" s="145" t="n">
+      <c r="U66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="V66" s="145" t="n">
+      <c r="V66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="W66" s="145" t="n">
+      <c r="W66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="X66" s="145" t="n">
+      <c r="X66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="Y66" s="145" t="n">
+      <c r="Y66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="Z66" s="145" t="n">
+      <c r="Z66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="AA66" s="145" t="n">
+      <c r="AA66" s="140" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="147" t="n">
+      <c r="AB66" s="143" t="n">
         <f aca="false">N66</f>
         <v>0</v>
       </c>
@@ -7279,12 +7242,12 @@
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="150"/>
-      <c r="I67" s="145"/>
-      <c r="J67" s="145"/>
-      <c r="K67" s="145"/>
-      <c r="L67" s="145"/>
-      <c r="M67" s="137"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="140"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="140"/>
+      <c r="M67" s="133"/>
       <c r="N67" s="74" t="n">
         <f aca="false">+(H67*30)+(I67*52/12)+(J67*26/12)+(K67*2)+L67+M67/12</f>
         <v>0</v>
@@ -7297,51 +7260,51 @@
         <f aca="false">IF(C5 = "DAILY", O67/365, IF(C5 = "WEEKLY", O67/52, IF(C5 = "BI-WEEKLY", O67/26, IF(C5 = "SEMI-MO", N67/2, IF(C5 = "MONTHLY", N67, IF(C5 = "ANNUAL", O67, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="150" t="n">
+      <c r="Q67" s="146" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="R67" s="145" t="n">
+      <c r="R67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="S67" s="145" t="n">
+      <c r="S67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="T67" s="145" t="n">
+      <c r="T67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="U67" s="145" t="n">
+      <c r="U67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="V67" s="145" t="n">
+      <c r="V67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="W67" s="145" t="n">
+      <c r="W67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="X67" s="145" t="n">
+      <c r="X67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="Y67" s="145" t="n">
+      <c r="Y67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="Z67" s="145" t="n">
+      <c r="Z67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="AA67" s="145" t="n">
+      <c r="AA67" s="140" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
-      <c r="AB67" s="147" t="n">
+      <c r="AB67" s="143" t="n">
         <f aca="false">N67</f>
         <v>0</v>
       </c>
@@ -7356,12 +7319,12 @@
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="145"/>
-      <c r="J68" s="145"/>
-      <c r="K68" s="145"/>
-      <c r="L68" s="145"/>
-      <c r="M68" s="137"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="133"/>
       <c r="N68" s="74" t="n">
         <f aca="false">+(H68*30)+(I68*52/12)+(J68*26/12)+(K68*2)+L68+M68/12</f>
         <v>0</v>
@@ -7374,51 +7337,51 @@
         <f aca="false">IF(C5 = "DAILY", O68/365, IF(C5 = "WEEKLY", O68/52, IF(C5 = "BI-WEEKLY", O68/26, IF(C5 = "SEMI-MO", N68/2, IF(C5 = "MONTHLY", N68, IF(C5 = "ANNUAL", O68, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="150" t="n">
+      <c r="Q68" s="146" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="R68" s="145" t="n">
+      <c r="R68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="S68" s="145" t="n">
+      <c r="S68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="T68" s="145" t="n">
+      <c r="T68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="U68" s="145" t="n">
+      <c r="U68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="V68" s="145" t="n">
+      <c r="V68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="W68" s="145" t="n">
+      <c r="W68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="X68" s="145" t="n">
+      <c r="X68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="Y68" s="145" t="n">
+      <c r="Y68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="Z68" s="145" t="n">
+      <c r="Z68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="145" t="n">
+      <c r="AA68" s="140" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
-      <c r="AB68" s="147" t="n">
+      <c r="AB68" s="143" t="n">
         <f aca="false">N68</f>
         <v>0</v>
       </c>
@@ -7433,12 +7396,12 @@
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="145"/>
-      <c r="J69" s="145"/>
-      <c r="K69" s="145"/>
-      <c r="L69" s="145"/>
-      <c r="M69" s="137"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="140"/>
+      <c r="L69" s="140"/>
+      <c r="M69" s="133"/>
       <c r="N69" s="74" t="n">
         <f aca="false">+(H69*30)+(I69*52/12)+(J69*26/12)+(K69*2)+L69+M69/12</f>
         <v>0</v>
@@ -7451,51 +7414,51 @@
         <f aca="false">IF(C5 = "DAILY", O69/365, IF(C5 = "WEEKLY", O69/52, IF(C5 = "BI-WEEKLY", O69/26, IF(C5 = "SEMI-MO", N69/2, IF(C5 = "MONTHLY", N69, IF(C5 = "ANNUAL", O69, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="150" t="n">
+      <c r="Q69" s="146" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="R69" s="145" t="n">
+      <c r="R69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="S69" s="145" t="n">
+      <c r="S69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="T69" s="145" t="n">
+      <c r="T69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="U69" s="145" t="n">
+      <c r="U69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="V69" s="145" t="n">
+      <c r="V69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="W69" s="145" t="n">
+      <c r="W69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="X69" s="145" t="n">
+      <c r="X69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="Y69" s="145" t="n">
+      <c r="Y69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="Z69" s="145" t="n">
+      <c r="Z69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="145" t="n">
+      <c r="AA69" s="140" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
-      <c r="AB69" s="147" t="n">
+      <c r="AB69" s="143" t="n">
         <f aca="false">N69</f>
         <v>0</v>
       </c>
@@ -7510,12 +7473,12 @@
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
       <c r="G70" s="49"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="145"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="145"/>
-      <c r="L70" s="145"/>
-      <c r="M70" s="137"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="140"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="133"/>
       <c r="N70" s="73" t="n">
         <f aca="false">+(H70*30)+(I70*52/12)+(J70*26/12)+(K70*2)+L70+M70/12</f>
         <v>0</v>
@@ -7528,51 +7491,51 @@
         <f aca="false">IF(C5 = "DAILY", O70/365, IF(C5 = "WEEKLY", O70/52, IF(C5 = "BI-WEEKLY", O70/26, IF(C5 = "SEMI-MO", N70/2, IF(C5 = "MONTHLY", N70, IF(C5 = "ANNUAL", O70, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q70" s="163" t="n">
+      <c r="Q70" s="156" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="R70" s="164" t="n">
+      <c r="R70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="S70" s="164" t="n">
+      <c r="S70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="T70" s="164" t="n">
+      <c r="T70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="U70" s="164" t="n">
+      <c r="U70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="V70" s="164" t="n">
+      <c r="V70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="W70" s="164" t="n">
+      <c r="W70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="X70" s="164" t="n">
+      <c r="X70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="Y70" s="164" t="n">
+      <c r="Y70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="Z70" s="164" t="n">
+      <c r="Z70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="164" t="n">
+      <c r="AA70" s="157" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
-      <c r="AB70" s="138" t="n">
+      <c r="AB70" s="134" t="n">
         <f aca="false">N70</f>
         <v>0</v>
       </c>
@@ -7584,7 +7547,7 @@
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="167" t="s">
+      <c r="G71" s="160" t="s">
         <v>28</v>
       </c>
       <c r="H71" s="74"/>
@@ -7593,63 +7556,63 @@
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
       <c r="M71" s="17"/>
-      <c r="N71" s="165" t="n">
+      <c r="N71" s="158" t="n">
         <f aca="false">SUM(N61:N70)</f>
         <v>0</v>
       </c>
-      <c r="O71" s="141" t="n">
+      <c r="O71" s="137" t="n">
         <f aca="false">SUM(O61:O70)</f>
         <v>0</v>
       </c>
-      <c r="P71" s="166" t="n">
+      <c r="P71" s="159" t="n">
         <f aca="false">SUM(P61:P70)</f>
         <v>0</v>
       </c>
-      <c r="Q71" s="165" t="n">
+      <c r="Q71" s="158" t="n">
         <f aca="false">SUM(Q61:Q70)</f>
         <v>0</v>
       </c>
-      <c r="R71" s="165" t="n">
+      <c r="R71" s="158" t="n">
         <f aca="false">SUM(R61:R70)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="165" t="n">
+      <c r="S71" s="158" t="n">
         <f aca="false">SUM(S61:S70)</f>
         <v>0</v>
       </c>
-      <c r="T71" s="165" t="n">
+      <c r="T71" s="158" t="n">
         <f aca="false">SUM(T61:T70)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="165" t="n">
+      <c r="U71" s="158" t="n">
         <f aca="false">SUM(U61:U70)</f>
         <v>0</v>
       </c>
-      <c r="V71" s="165" t="n">
+      <c r="V71" s="158" t="n">
         <f aca="false">SUM(V61:V70)</f>
         <v>0</v>
       </c>
-      <c r="W71" s="165" t="n">
+      <c r="W71" s="158" t="n">
         <f aca="false">SUM(W61:W70)</f>
         <v>0</v>
       </c>
-      <c r="X71" s="165" t="n">
+      <c r="X71" s="158" t="n">
         <f aca="false">SUM(X61:X70)</f>
         <v>0</v>
       </c>
-      <c r="Y71" s="165" t="n">
+      <c r="Y71" s="158" t="n">
         <f aca="false">SUM(Y61:Y70)</f>
         <v>0</v>
       </c>
-      <c r="Z71" s="165" t="n">
+      <c r="Z71" s="158" t="n">
         <f aca="false">SUM(Z61:Z70)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="165" t="n">
+      <c r="AA71" s="158" t="n">
         <f aca="false">SUM(AA61:AA70)</f>
         <v>0</v>
       </c>
-      <c r="AB71" s="165" t="n">
+      <c r="AB71" s="158" t="n">
         <f aca="false">SUM(AB61:AB70)</f>
         <v>0</v>
       </c>
@@ -7668,216 +7631,216 @@
       <c r="K72" s="49"/>
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
-      <c r="N72" s="151"/>
-      <c r="O72" s="152"/>
-      <c r="P72" s="153"/>
-      <c r="Q72" s="151"/>
-      <c r="R72" s="152"/>
-      <c r="S72" s="152"/>
-      <c r="T72" s="152"/>
-      <c r="U72" s="152"/>
-      <c r="V72" s="152"/>
-      <c r="W72" s="152"/>
-      <c r="X72" s="152"/>
-      <c r="Y72" s="152"/>
-      <c r="Z72" s="152"/>
-      <c r="AA72" s="152"/>
-      <c r="AB72" s="153"/>
+      <c r="N72" s="147"/>
+      <c r="O72" s="148"/>
+      <c r="P72" s="149"/>
+      <c r="Q72" s="147"/>
+      <c r="R72" s="148"/>
+      <c r="S72" s="148"/>
+      <c r="T72" s="148"/>
+      <c r="U72" s="148"/>
+      <c r="V72" s="148"/>
+      <c r="W72" s="148"/>
+      <c r="X72" s="148"/>
+      <c r="Y72" s="148"/>
+      <c r="Z72" s="148"/>
+      <c r="AA72" s="148"/>
+      <c r="AB72" s="149"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="168" t="s">
+      <c r="F73" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="G73" s="169"/>
-      <c r="N73" s="170" t="n">
+      <c r="G73" s="162"/>
+      <c r="N73" s="163" t="n">
         <f aca="false">N37+N50+N58+N71</f>
         <v>0</v>
       </c>
-      <c r="O73" s="171" t="n">
+      <c r="O73" s="164" t="n">
         <f aca="false">O37+O50+O58+O71</f>
         <v>0</v>
       </c>
-      <c r="P73" s="172" t="n">
+      <c r="P73" s="165" t="n">
         <f aca="false">P37+P50+P58+P71</f>
         <v>0</v>
       </c>
-      <c r="Q73" s="171" t="n">
+      <c r="Q73" s="164" t="n">
         <f aca="false">Q37+Q50+Q58+Q71</f>
         <v>0</v>
       </c>
-      <c r="R73" s="171" t="n">
+      <c r="R73" s="164" t="n">
         <f aca="false">R37+R50+R58+R71</f>
         <v>0</v>
       </c>
-      <c r="S73" s="171" t="n">
+      <c r="S73" s="164" t="n">
         <f aca="false">S37+S50+S58+S71</f>
         <v>0</v>
       </c>
-      <c r="T73" s="171" t="n">
+      <c r="T73" s="164" t="n">
         <f aca="false">T37+T50+T58+T71</f>
         <v>0</v>
       </c>
-      <c r="U73" s="171" t="n">
+      <c r="U73" s="164" t="n">
         <f aca="false">U37+U50+U58+U71</f>
         <v>0</v>
       </c>
-      <c r="V73" s="171" t="n">
+      <c r="V73" s="164" t="n">
         <f aca="false">V37+V50+V58+V71</f>
         <v>0</v>
       </c>
-      <c r="W73" s="171" t="n">
+      <c r="W73" s="164" t="n">
         <f aca="false">W37+W50+W58+W71</f>
         <v>0</v>
       </c>
-      <c r="X73" s="171" t="n">
+      <c r="X73" s="164" t="n">
         <f aca="false">X37+X50+X58+X71</f>
         <v>0</v>
       </c>
-      <c r="Y73" s="171" t="n">
+      <c r="Y73" s="164" t="n">
         <f aca="false">Y37+Y50+Y58+Y71</f>
         <v>0</v>
       </c>
-      <c r="Z73" s="171" t="n">
+      <c r="Z73" s="164" t="n">
         <f aca="false">Z37+Z50+Z58+Z71</f>
         <v>0</v>
       </c>
-      <c r="AA73" s="171" t="n">
+      <c r="AA73" s="164" t="n">
         <f aca="false">AA37+AA50+AA58+AA71</f>
         <v>0</v>
       </c>
-      <c r="AB73" s="171" t="n">
+      <c r="AB73" s="164" t="n">
         <f aca="false">AB37+AB50+AB58+AB71</f>
         <v>0</v>
       </c>
       <c r="AC73" s="74"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="152"/>
-      <c r="B74" s="152"/>
-      <c r="C74" s="152"/>
-      <c r="D74" s="152"/>
-      <c r="E74" s="152"/>
-      <c r="F74" s="152"/>
-      <c r="G74" s="173"/>
-      <c r="H74" s="152"/>
-      <c r="I74" s="152"/>
-      <c r="J74" s="152"/>
-      <c r="K74" s="152"/>
-      <c r="L74" s="152"/>
-      <c r="M74" s="153"/>
-      <c r="N74" s="151"/>
-      <c r="O74" s="152"/>
-      <c r="P74" s="153"/>
-      <c r="Q74" s="152"/>
-      <c r="R74" s="152"/>
-      <c r="S74" s="152"/>
-      <c r="T74" s="152"/>
-      <c r="U74" s="152"/>
-      <c r="V74" s="152"/>
-      <c r="W74" s="152"/>
-      <c r="X74" s="152"/>
-      <c r="Y74" s="152"/>
-      <c r="Z74" s="152"/>
-      <c r="AA74" s="152"/>
-      <c r="AB74" s="153"/>
+      <c r="A74" s="148"/>
+      <c r="B74" s="148"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="148"/>
+      <c r="G74" s="166"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="148"/>
+      <c r="L74" s="148"/>
+      <c r="M74" s="149"/>
+      <c r="N74" s="147"/>
+      <c r="O74" s="148"/>
+      <c r="P74" s="149"/>
+      <c r="Q74" s="148"/>
+      <c r="R74" s="148"/>
+      <c r="S74" s="148"/>
+      <c r="T74" s="148"/>
+      <c r="U74" s="148"/>
+      <c r="V74" s="148"/>
+      <c r="W74" s="148"/>
+      <c r="X74" s="148"/>
+      <c r="Y74" s="148"/>
+      <c r="Z74" s="148"/>
+      <c r="AA74" s="148"/>
+      <c r="AB74" s="149"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E75" s="174" t="s">
+      <c r="E75" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="F75" s="174"/>
-      <c r="G75" s="174"/>
-      <c r="H75" s="175"/>
-      <c r="I75" s="104"/>
-      <c r="J75" s="104"/>
-      <c r="K75" s="104"/>
-      <c r="L75" s="104"/>
-      <c r="M75" s="176"/>
-      <c r="N75" s="177" t="n">
+      <c r="F75" s="167"/>
+      <c r="G75" s="167"/>
+      <c r="H75" s="168"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="169"/>
+      <c r="N75" s="170" t="n">
         <f aca="false">N23-N73</f>
         <v>0</v>
       </c>
-      <c r="O75" s="177" t="n">
+      <c r="O75" s="170" t="n">
         <f aca="false">O23-O73</f>
         <v>0</v>
       </c>
-      <c r="P75" s="178" t="n">
+      <c r="P75" s="171" t="n">
         <f aca="false">P23-P73</f>
         <v>0</v>
       </c>
-      <c r="Q75" s="177" t="n">
+      <c r="Q75" s="170" t="n">
         <f aca="false">Q23-Q73</f>
         <v>0</v>
       </c>
-      <c r="R75" s="177" t="n">
+      <c r="R75" s="170" t="n">
         <f aca="false">R23-R73</f>
         <v>0</v>
       </c>
-      <c r="S75" s="177" t="n">
+      <c r="S75" s="170" t="n">
         <f aca="false">S23-S73</f>
         <v>0</v>
       </c>
-      <c r="T75" s="177" t="n">
+      <c r="T75" s="170" t="n">
         <f aca="false">T23-T73</f>
         <v>0</v>
       </c>
-      <c r="U75" s="177" t="n">
+      <c r="U75" s="170" t="n">
         <f aca="false">U23-U73</f>
         <v>0</v>
       </c>
-      <c r="V75" s="177" t="n">
+      <c r="V75" s="170" t="n">
         <f aca="false">V23-V73</f>
         <v>0</v>
       </c>
-      <c r="W75" s="177" t="n">
+      <c r="W75" s="170" t="n">
         <f aca="false">W23-W73</f>
         <v>0</v>
       </c>
-      <c r="X75" s="177" t="n">
+      <c r="X75" s="170" t="n">
         <f aca="false">X23-X73</f>
         <v>0</v>
       </c>
-      <c r="Y75" s="177" t="n">
+      <c r="Y75" s="170" t="n">
         <f aca="false">Y23-Y73</f>
         <v>0</v>
       </c>
-      <c r="Z75" s="177" t="n">
+      <c r="Z75" s="170" t="n">
         <f aca="false">Z23-Z73</f>
         <v>0</v>
       </c>
-      <c r="AA75" s="177" t="n">
+      <c r="AA75" s="170" t="n">
         <f aca="false">AA23-AA73</f>
         <v>0</v>
       </c>
-      <c r="AB75" s="177" t="n">
+      <c r="AB75" s="170" t="n">
         <f aca="false">AB23-AB73</f>
         <v>0</v>
       </c>
       <c r="AC75" s="74"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H76" s="179"/>
-      <c r="I76" s="179"/>
-      <c r="J76" s="179"/>
-      <c r="K76" s="179"/>
-      <c r="L76" s="179"/>
-      <c r="M76" s="179"/>
-      <c r="N76" s="179"/>
-      <c r="O76" s="179"/>
-      <c r="P76" s="179"/>
-      <c r="Q76" s="179"/>
-      <c r="R76" s="179"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="172"/>
+      <c r="K76" s="172"/>
+      <c r="L76" s="172"/>
+      <c r="M76" s="172"/>
+      <c r="N76" s="172"/>
+      <c r="O76" s="172"/>
+      <c r="P76" s="172"/>
+      <c r="Q76" s="172"/>
+      <c r="R76" s="172"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="180"/>
+      <c r="A78" s="173"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="104"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104"/>
-      <c r="G79" s="104"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="17"/>
@@ -7928,16 +7891,16 @@
       <c r="G85" s="17"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="104"/>
-      <c r="C87" s="104"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -7965,7 +7928,7 @@
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
-      <c r="G90" s="104"/>
+      <c r="G90" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7989,13 +7952,13 @@
   </sheetPr>
   <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="9" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I74" activeCellId="0" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.86"/>
   </cols>
@@ -8005,260 +7968,262 @@
         <v>82</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="104"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="182"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="182"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="175"/>
+      <c r="Y3" s="175"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107" t="n">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106" t="n">
         <f aca="false">'Paycheck Analysis'!D1</f>
         <v>2020</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="110" t="str">
+      <c r="B7" s="108"/>
+      <c r="C7" s="109" t="str">
         <f aca="false">'Paycheck Analysis'!O3</f>
         <v>SEMI-MO</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="H8" s="184" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="166"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="137"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="159"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="185" t="str">
+      <c r="H9" s="178" t="str">
         <f aca="false">IF(C6, CONCATENATE("JAN ", C6), "JAN {?}")</f>
         <v>JAN 2020</v>
       </c>
-      <c r="I9" s="186" t="str">
+      <c r="I9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("FEB ",C6), "FEB {?}")</f>
         <v>FEB 2020</v>
       </c>
-      <c r="J9" s="186" t="str">
+      <c r="J9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("MAR ",C6), "MAR {?}")</f>
         <v>MAR 2020</v>
       </c>
-      <c r="K9" s="186" t="str">
+      <c r="K9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("APR ", C6), "APR {?}")</f>
         <v>APR 2020</v>
       </c>
-      <c r="L9" s="186" t="str">
+      <c r="L9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("MAY ",C6), "MAY {?}")</f>
         <v>MAY 2020</v>
       </c>
-      <c r="M9" s="186" t="str">
+      <c r="M9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("JUN ",C6), "JUN {?}")</f>
         <v>JUN 2020</v>
       </c>
-      <c r="N9" s="186" t="str">
+      <c r="N9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("JUL ",C6), "JUL {?}")</f>
         <v>JUL 2020</v>
       </c>
-      <c r="O9" s="186" t="str">
+      <c r="O9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("AUG ",C6), "AUG {?}")</f>
         <v>AUG 2020</v>
       </c>
-      <c r="P9" s="186" t="str">
+      <c r="P9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("SEP ",C6), "SEP {?}")</f>
         <v>SEP 2020</v>
       </c>
-      <c r="Q9" s="186" t="str">
+      <c r="Q9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("OCT ",C6), "OCT {?}")</f>
         <v>OCT 2020</v>
       </c>
-      <c r="R9" s="186" t="str">
+      <c r="R9" s="179" t="str">
         <f aca="false">IF(C6, CONCATENATE("NOV ",C6), "NOV {?}")</f>
         <v>NOV 2020</v>
       </c>
-      <c r="S9" s="187" t="str">
+      <c r="S9" s="180" t="str">
         <f aca="false">IF(C6, CONCATENATE("DEC ",C6), "DEC {?}")</f>
         <v>DEC 2020</v>
       </c>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="181" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="127"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="126"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="157"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="80" t="s">
         <v>87</v>
       </c>
@@ -8266,20 +8231,20 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="132"/>
+      <c r="G11" s="131"/>
       <c r="H11" s="74"/>
       <c r="I11" s="17"/>
       <c r="S11" s="39"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74"/>
       <c r="B12" s="74"/>
-      <c r="C12" s="190" t="s">
+      <c r="C12" s="176" t="s">
         <v>88</v>
       </c>
       <c r="D12" s="17"/>
@@ -8288,11 +8253,11 @@
       <c r="G12" s="39"/>
       <c r="H12" s="74"/>
       <c r="S12" s="39"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74"/>
@@ -8355,11 +8320,11 @@
         <f aca="false">'Budget Analysis'!AB40</f>
         <v>0</v>
       </c>
-      <c r="U13" s="104"/>
-      <c r="V13" s="181"/>
-      <c r="W13" s="181"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74"/>
@@ -8677,7 +8642,7 @@
       <c r="B19" s="74" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="104" t="str">
+      <c r="C19" s="17" t="str">
         <f aca="false">'Budget Analysis'!C46</f>
         <v>-</v>
       </c>
@@ -8739,7 +8704,7 @@
       <c r="B20" s="74" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="104" t="str">
+      <c r="C20" s="17" t="str">
         <f aca="false">'Budget Analysis'!C47</f>
         <v>-</v>
       </c>
@@ -8801,7 +8766,7 @@
       <c r="B21" s="74" t="n">
         <v>9</v>
       </c>
-      <c r="C21" s="104" t="str">
+      <c r="C21" s="17" t="str">
         <f aca="false">'Budget Analysis'!C48</f>
         <v>-</v>
       </c>
@@ -8863,7 +8828,7 @@
       <c r="B22" s="73" t="n">
         <v>10</v>
       </c>
-      <c r="C22" s="191" t="str">
+      <c r="C22" s="183" t="str">
         <f aca="false">'Budget Analysis'!C49</f>
         <v>-</v>
       </c>
@@ -8929,52 +8894,52 @@
       <c r="F23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="140" t="n">
+      <c r="G23" s="131"/>
+      <c r="H23" s="136" t="n">
         <f aca="false">SUM(H13:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="192" t="n">
+      <c r="I23" s="184" t="n">
         <f aca="false">SUM(I13:I22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="192" t="n">
+      <c r="J23" s="184" t="n">
         <f aca="false">SUM(J13:J22)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="192" t="n">
+      <c r="K23" s="184" t="n">
         <f aca="false">SUM(K13:K22)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="192" t="n">
+      <c r="L23" s="184" t="n">
         <f aca="false">SUM(L13:L22)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="192" t="n">
+      <c r="M23" s="184" t="n">
         <f aca="false">SUM(M13:M22)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="192" t="n">
+      <c r="N23" s="184" t="n">
         <f aca="false">SUM(N13:N22)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="192" t="n">
+      <c r="O23" s="184" t="n">
         <f aca="false">SUM(O13:O22)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="192" t="n">
+      <c r="P23" s="184" t="n">
         <f aca="false">SUM(P13:P22)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="192" t="n">
+      <c r="Q23" s="184" t="n">
         <f aca="false">SUM(Q13:Q22)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="192" t="n">
+      <c r="R23" s="184" t="n">
         <f aca="false">SUM(R13:R22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="142" t="n">
+      <c r="S23" s="138" t="n">
         <f aca="false">SUM(S13:S22)</f>
         <v>0</v>
       </c>
@@ -8999,14 +8964,14 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="132"/>
+      <c r="G25" s="131"/>
       <c r="H25" s="74"/>
       <c r="S25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="74"/>
       <c r="B26" s="74"/>
-      <c r="C26" s="190" t="s">
+      <c r="C26" s="176" t="s">
         <v>88</v>
       </c>
       <c r="D26" s="17"/>
@@ -9336,51 +9301,51 @@
         <v>89</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="140" t="n">
+      <c r="H32" s="136" t="n">
         <f aca="false">SUM(H27:H31)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="148" t="n">
+      <c r="I32" s="144" t="n">
         <f aca="false">SUM(I27:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="148" t="n">
+      <c r="J32" s="144" t="n">
         <f aca="false">SUM(J27:J31)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="148" t="n">
+      <c r="K32" s="144" t="n">
         <f aca="false">SUM(K27:K31)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="148" t="n">
+      <c r="L32" s="144" t="n">
         <f aca="false">SUM(L27:L31)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="148" t="n">
+      <c r="M32" s="144" t="n">
         <f aca="false">SUM(M27:M31)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="148" t="n">
+      <c r="N32" s="144" t="n">
         <f aca="false">SUM(N27:N31)</f>
         <v>0</v>
       </c>
-      <c r="O32" s="148" t="n">
+      <c r="O32" s="144" t="n">
         <f aca="false">SUM(O27:O31)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="148" t="n">
+      <c r="P32" s="144" t="n">
         <f aca="false">SUM(P27:P31)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="148" t="n">
+      <c r="Q32" s="144" t="n">
         <f aca="false">SUM(Q27:Q31)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="148" t="n">
+      <c r="R32" s="144" t="n">
         <f aca="false">SUM(R27:R31)</f>
         <v>0</v>
       </c>
-      <c r="S32" s="142" t="n">
+      <c r="S32" s="138" t="n">
         <f aca="false">SUM(S27:S31)</f>
         <v>0</v>
       </c>
@@ -9393,69 +9358,69 @@
       <c r="E33" s="49"/>
       <c r="F33" s="49"/>
       <c r="G33" s="49"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="152"/>
-      <c r="Q33" s="152"/>
-      <c r="R33" s="152"/>
-      <c r="S33" s="153"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
+      <c r="N33" s="148"/>
+      <c r="O33" s="148"/>
+      <c r="P33" s="148"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="148"/>
+      <c r="S33" s="149"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F34" s="26" t="s">
         <v>91</v>
       </c>
       <c r="G34" s="26"/>
-      <c r="H34" s="158" t="n">
+      <c r="H34" s="151" t="n">
         <f aca="false">H23+H32</f>
         <v>0</v>
       </c>
-      <c r="I34" s="128" t="n">
+      <c r="I34" s="127" t="n">
         <f aca="false">I23+I32</f>
         <v>0</v>
       </c>
-      <c r="J34" s="128" t="n">
+      <c r="J34" s="127" t="n">
         <f aca="false">J23+J32</f>
         <v>0</v>
       </c>
-      <c r="K34" s="128" t="n">
+      <c r="K34" s="127" t="n">
         <f aca="false">K23+K32</f>
         <v>0</v>
       </c>
-      <c r="L34" s="128" t="n">
+      <c r="L34" s="127" t="n">
         <f aca="false">L23+L32</f>
         <v>0</v>
       </c>
-      <c r="M34" s="128" t="n">
+      <c r="M34" s="127" t="n">
         <f aca="false">M23+M32</f>
         <v>0</v>
       </c>
-      <c r="N34" s="128" t="n">
+      <c r="N34" s="127" t="n">
         <f aca="false">N23+N32</f>
         <v>0</v>
       </c>
-      <c r="O34" s="128" t="n">
+      <c r="O34" s="127" t="n">
         <f aca="false">O23+O32</f>
         <v>0</v>
       </c>
-      <c r="P34" s="128" t="n">
+      <c r="P34" s="127" t="n">
         <f aca="false">P23+P32</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="128" t="n">
+      <c r="Q34" s="127" t="n">
         <f aca="false">Q23+Q32</f>
         <v>0</v>
       </c>
-      <c r="R34" s="128" t="n">
+      <c r="R34" s="127" t="n">
         <f aca="false">R23+R32</f>
         <v>0</v>
       </c>
-      <c r="S34" s="193" t="n">
+      <c r="S34" s="185" t="n">
         <f aca="false">S23+S32</f>
         <v>0</v>
       </c>
@@ -9465,30 +9430,30 @@
       <c r="S35" s="39"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="160"/>
-      <c r="N36" s="160"/>
-      <c r="O36" s="160"/>
-      <c r="P36" s="160"/>
-      <c r="Q36" s="160"/>
-      <c r="R36" s="160"/>
-      <c r="S36" s="162"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="155"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="157"/>
+      <c r="A37" s="150"/>
       <c r="B37" s="80" t="s">
         <v>87</v>
       </c>
@@ -9503,7 +9468,7 @@
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="74"/>
       <c r="B38" s="74"/>
-      <c r="C38" s="190" t="s">
+      <c r="C38" s="176" t="s">
         <v>88</v>
       </c>
       <c r="D38" s="17"/>
@@ -9526,40 +9491,40 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" s="196" t="n">
+      <c r="H39" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9576,40 +9541,40 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" s="196" t="n">
+      <c r="H40" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9626,40 +9591,40 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" s="196" t="n">
+      <c r="H41" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9676,40 +9641,40 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" s="196" t="n">
+      <c r="H42" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9726,40 +9691,40 @@
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" s="196" t="n">
+      <c r="H43" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9776,40 +9741,40 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" s="196" t="n">
+      <c r="H44" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9826,40 +9791,40 @@
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" s="196" t="n">
+      <c r="H45" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9876,40 +9841,40 @@
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" s="196" t="n">
+      <c r="H46" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9926,40 +9891,40 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="196" t="n">
+      <c r="H47" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9976,40 +9941,40 @@
       <c r="E48" s="49"/>
       <c r="F48" s="49"/>
       <c r="G48" s="49"/>
-      <c r="H48" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" s="196" t="n">
+      <c r="H48" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10023,51 +9988,51 @@
         <v>93</v>
       </c>
       <c r="G49" s="18"/>
-      <c r="H49" s="140" t="n">
+      <c r="H49" s="136" t="n">
         <f aca="false">SUM(H39:H48)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="148" t="n">
+      <c r="I49" s="144" t="n">
         <f aca="false">SUM(I39:I48)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="148" t="n">
+      <c r="J49" s="144" t="n">
         <f aca="false">SUM(J39:J48)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="148" t="n">
+      <c r="K49" s="144" t="n">
         <f aca="false">SUM(K39:K48)</f>
         <v>0</v>
       </c>
-      <c r="L49" s="148" t="n">
+      <c r="L49" s="144" t="n">
         <f aca="false">SUM(L39:L48)</f>
         <v>0</v>
       </c>
-      <c r="M49" s="148" t="n">
+      <c r="M49" s="144" t="n">
         <f aca="false">SUM(M39:M48)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="148" t="n">
+      <c r="N49" s="144" t="n">
         <f aca="false">SUM(N39:N48)</f>
         <v>0</v>
       </c>
-      <c r="O49" s="148" t="n">
+      <c r="O49" s="144" t="n">
         <f aca="false">SUM(O39:O48)</f>
         <v>0</v>
       </c>
-      <c r="P49" s="148" t="n">
+      <c r="P49" s="144" t="n">
         <f aca="false">SUM(P39:P48)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="148" t="n">
+      <c r="Q49" s="144" t="n">
         <f aca="false">SUM(Q39:Q48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="148" t="n">
+      <c r="R49" s="144" t="n">
         <f aca="false">SUM(R39:R48)</f>
         <v>0</v>
       </c>
-      <c r="S49" s="142" t="n">
+      <c r="S49" s="138" t="n">
         <f aca="false">SUM(S39:S48)</f>
         <v>0</v>
       </c>
@@ -10099,7 +10064,7 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="74"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="190" t="s">
+      <c r="C52" s="176" t="s">
         <v>88</v>
       </c>
       <c r="D52" s="17"/>
@@ -10122,40 +10087,40 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" s="196" t="n">
+      <c r="H53" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10172,40 +10137,40 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" s="196" t="n">
+      <c r="H54" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10222,40 +10187,40 @@
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="196" t="n">
+      <c r="H55" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10272,40 +10237,40 @@
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" s="196" t="n">
+      <c r="H56" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10322,40 +10287,40 @@
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
-      <c r="H57" s="194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" s="195" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" s="196" t="n">
+      <c r="H57" s="186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10369,51 +10334,51 @@
         <v>93</v>
       </c>
       <c r="G58" s="18"/>
-      <c r="H58" s="140" t="n">
+      <c r="H58" s="136" t="n">
         <f aca="false">SUM(H53:H57)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="148" t="n">
+      <c r="I58" s="144" t="n">
         <f aca="false">SUM(I53:I57)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="148" t="n">
+      <c r="J58" s="144" t="n">
         <f aca="false">SUM(J53:J57)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="148" t="n">
+      <c r="K58" s="144" t="n">
         <f aca="false">SUM(K53:K57)</f>
         <v>0</v>
       </c>
-      <c r="L58" s="148" t="n">
+      <c r="L58" s="144" t="n">
         <f aca="false">SUM(L53:L57)</f>
         <v>0</v>
       </c>
-      <c r="M58" s="148" t="n">
+      <c r="M58" s="144" t="n">
         <f aca="false">SUM(M53:M57)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="148" t="n">
+      <c r="N58" s="144" t="n">
         <f aca="false">SUM(N53:N57)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="148" t="n">
+      <c r="O58" s="144" t="n">
         <f aca="false">SUM(O53:O57)</f>
         <v>0</v>
       </c>
-      <c r="P58" s="148" t="n">
+      <c r="P58" s="144" t="n">
         <f aca="false">SUM(P53:P57)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="148" t="n">
+      <c r="Q58" s="144" t="n">
         <f aca="false">SUM(Q53:Q57)</f>
         <v>0</v>
       </c>
-      <c r="R58" s="148" t="n">
+      <c r="R58" s="144" t="n">
         <f aca="false">SUM(R53:R57)</f>
         <v>0</v>
       </c>
-      <c r="S58" s="142" t="n">
+      <c r="S58" s="138" t="n">
         <f aca="false">SUM(S53:S57)</f>
         <v>0</v>
       </c>
@@ -10426,25 +10391,25 @@
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="152"/>
-      <c r="K59" s="152"/>
-      <c r="L59" s="152"/>
-      <c r="M59" s="152"/>
-      <c r="N59" s="152"/>
-      <c r="O59" s="152"/>
-      <c r="P59" s="152"/>
-      <c r="Q59" s="152"/>
-      <c r="R59" s="152"/>
-      <c r="S59" s="153"/>
+      <c r="H59" s="147"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="148"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="148"/>
+      <c r="N59" s="148"/>
+      <c r="O59" s="148"/>
+      <c r="P59" s="148"/>
+      <c r="Q59" s="148"/>
+      <c r="R59" s="148"/>
+      <c r="S59" s="149"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F60" s="93" t="s">
         <v>94</v>
       </c>
       <c r="G60" s="93"/>
-      <c r="H60" s="170" t="n">
+      <c r="H60" s="163" t="n">
         <f aca="false">H49+H58</f>
         <v>0</v>
       </c>
@@ -10488,7 +10453,7 @@
         <f aca="false">R49+R58</f>
         <v>0</v>
       </c>
-      <c r="S60" s="172" t="n">
+      <c r="S60" s="165" t="n">
         <f aca="false">S49+S58</f>
         <v>0</v>
       </c>
@@ -10498,60 +10463,60 @@
       <c r="S61" s="39"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="197" t="s">
+      <c r="A62" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="198"/>
-      <c r="C62" s="198"/>
-      <c r="D62" s="198"/>
-      <c r="E62" s="198"/>
-      <c r="F62" s="198"/>
-      <c r="G62" s="199"/>
-      <c r="H62" s="200" t="n">
+      <c r="B62" s="190"/>
+      <c r="C62" s="190"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="191"/>
+      <c r="H62" s="192" t="n">
         <f aca="false">H34-H60</f>
         <v>0</v>
       </c>
-      <c r="I62" s="198" t="n">
+      <c r="I62" s="190" t="n">
         <f aca="false">I34-I60</f>
         <v>0</v>
       </c>
-      <c r="J62" s="198" t="n">
+      <c r="J62" s="190" t="n">
         <f aca="false">J34-J60</f>
         <v>0</v>
       </c>
-      <c r="K62" s="198" t="n">
+      <c r="K62" s="190" t="n">
         <f aca="false">K34-K60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="198" t="n">
+      <c r="L62" s="190" t="n">
         <f aca="false">L34-L60</f>
         <v>0</v>
       </c>
-      <c r="M62" s="198" t="n">
+      <c r="M62" s="190" t="n">
         <f aca="false">M34-M60</f>
         <v>0</v>
       </c>
-      <c r="N62" s="198" t="n">
+      <c r="N62" s="190" t="n">
         <f aca="false">N34-N60</f>
         <v>0</v>
       </c>
-      <c r="O62" s="198" t="n">
+      <c r="O62" s="190" t="n">
         <f aca="false">O34-O60</f>
         <v>0</v>
       </c>
-      <c r="P62" s="198" t="n">
+      <c r="P62" s="190" t="n">
         <f aca="false">P34-P60</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="198" t="n">
+      <c r="Q62" s="190" t="n">
         <f aca="false">Q34-Q60</f>
         <v>0</v>
       </c>
-      <c r="R62" s="198" t="n">
+      <c r="R62" s="190" t="n">
         <f aca="false">R34-R60</f>
         <v>0</v>
       </c>
-      <c r="S62" s="199" t="n">
+      <c r="S62" s="191" t="n">
         <f aca="false">S34-S60</f>
         <v>0</v>
       </c>
@@ -10561,27 +10526,27 @@
       <c r="S63" s="39"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="201" t="s">
+      <c r="A64" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="202"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="202"/>
-      <c r="E64" s="202"/>
-      <c r="F64" s="202"/>
-      <c r="G64" s="202"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="202"/>
-      <c r="J64" s="202"/>
-      <c r="K64" s="202"/>
-      <c r="L64" s="202"/>
-      <c r="M64" s="202"/>
-      <c r="N64" s="202"/>
-      <c r="O64" s="202"/>
-      <c r="P64" s="202"/>
-      <c r="Q64" s="202"/>
-      <c r="R64" s="202"/>
-      <c r="S64" s="204"/>
+      <c r="B64" s="194"/>
+      <c r="C64" s="194"/>
+      <c r="D64" s="194"/>
+      <c r="E64" s="194"/>
+      <c r="F64" s="194"/>
+      <c r="G64" s="194"/>
+      <c r="H64" s="195"/>
+      <c r="I64" s="194"/>
+      <c r="J64" s="194"/>
+      <c r="K64" s="194"/>
+      <c r="L64" s="194"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="194"/>
+      <c r="O64" s="194"/>
+      <c r="P64" s="194"/>
+      <c r="Q64" s="194"/>
+      <c r="R64" s="194"/>
+      <c r="S64" s="196"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="80" t="s">
@@ -10597,13 +10562,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="74"/>
-      <c r="C66" s="190" t="s">
+      <c r="C66" s="176" t="s">
         <v>88</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="17"/>
-      <c r="G66" s="190" t="s">
+      <c r="G66" s="176" t="s">
         <v>97</v>
       </c>
       <c r="H66" s="74"/>
@@ -10620,7 +10585,7 @@
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="138" t="n">
+      <c r="G67" s="134" t="n">
         <v>0</v>
       </c>
       <c r="H67" s="74" t="n">
@@ -10683,7 +10648,7 @@
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
-      <c r="G68" s="205" t="n">
+      <c r="G68" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H68" s="74" t="n">
@@ -10746,7 +10711,7 @@
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="205" t="n">
+      <c r="G69" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H69" s="74" t="n">
@@ -10809,7 +10774,7 @@
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="205" t="n">
+      <c r="G70" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H70" s="74" t="n">
@@ -10872,7 +10837,7 @@
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="205" t="n">
+      <c r="G71" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H71" s="74" t="n">
@@ -10935,7 +10900,7 @@
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="205" t="n">
+      <c r="G72" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H72" s="74" t="n">
@@ -10998,7 +10963,7 @@
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="205" t="n">
+      <c r="G73" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H73" s="74" t="n">
@@ -11061,7 +11026,7 @@
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="17"/>
-      <c r="G74" s="205" t="n">
+      <c r="G74" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H74" s="74" t="n">
@@ -11124,7 +11089,7 @@
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
       <c r="F75" s="17"/>
-      <c r="G75" s="205" t="n">
+      <c r="G75" s="197" t="n">
         <v>0</v>
       </c>
       <c r="H75" s="74" t="n">
@@ -11187,114 +11152,114 @@
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
-      <c r="G76" s="205" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="151" t="n">
+      <c r="G76" s="197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="147" t="n">
         <f aca="false">G76+H22-H48</f>
         <v>0</v>
       </c>
-      <c r="I76" s="152" t="n">
+      <c r="I76" s="148" t="n">
         <f aca="false">H76+I22-I48</f>
         <v>0</v>
       </c>
-      <c r="J76" s="152" t="n">
+      <c r="J76" s="148" t="n">
         <f aca="false">I76+J22-J48</f>
         <v>0</v>
       </c>
-      <c r="K76" s="152" t="n">
+      <c r="K76" s="148" t="n">
         <f aca="false">J76+K22-K48</f>
         <v>0</v>
       </c>
-      <c r="L76" s="152" t="n">
+      <c r="L76" s="148" t="n">
         <f aca="false">K76+L22-L48</f>
         <v>0</v>
       </c>
-      <c r="M76" s="152" t="n">
+      <c r="M76" s="148" t="n">
         <f aca="false">L76+M22-M48</f>
         <v>0</v>
       </c>
-      <c r="N76" s="152" t="n">
+      <c r="N76" s="148" t="n">
         <f aca="false">M76+N22-N48</f>
         <v>0</v>
       </c>
-      <c r="O76" s="152" t="n">
+      <c r="O76" s="148" t="n">
         <f aca="false">N76+O22-O48</f>
         <v>0</v>
       </c>
-      <c r="P76" s="152" t="n">
+      <c r="P76" s="148" t="n">
         <f aca="false">O76+P22-P48</f>
         <v>0</v>
       </c>
-      <c r="Q76" s="152" t="n">
+      <c r="Q76" s="148" t="n">
         <f aca="false">P76+Q22-Q48</f>
         <v>0</v>
       </c>
-      <c r="R76" s="152" t="n">
+      <c r="R76" s="148" t="n">
         <f aca="false">Q76+R22-R48</f>
         <v>0</v>
       </c>
-      <c r="S76" s="153" t="n">
+      <c r="S76" s="149" t="n">
         <f aca="false">R76+S22-S48</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="17"/>
-      <c r="D77" s="206" t="s">
+      <c r="D77" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="E77" s="206"/>
-      <c r="F77" s="207"/>
-      <c r="G77" s="208" t="n">
+      <c r="E77" s="198"/>
+      <c r="F77" s="199"/>
+      <c r="G77" s="200" t="n">
         <f aca="false">SUM(G67:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="203" t="n">
+      <c r="H77" s="195" t="n">
         <f aca="false">SUM(H67:H76)</f>
         <v>0</v>
       </c>
-      <c r="I77" s="209" t="n">
+      <c r="I77" s="201" t="n">
         <f aca="false">SUM(I67:I76)</f>
         <v>0</v>
       </c>
-      <c r="J77" s="209" t="n">
+      <c r="J77" s="201" t="n">
         <f aca="false">SUM(J67:J76)</f>
         <v>0</v>
       </c>
-      <c r="K77" s="209" t="n">
+      <c r="K77" s="201" t="n">
         <f aca="false">SUM(K67:K76)</f>
         <v>0</v>
       </c>
-      <c r="L77" s="209" t="n">
+      <c r="L77" s="201" t="n">
         <f aca="false">SUM(L67:L76)</f>
         <v>0</v>
       </c>
-      <c r="M77" s="209" t="n">
+      <c r="M77" s="201" t="n">
         <f aca="false">SUM(M67:M76)</f>
         <v>0</v>
       </c>
-      <c r="N77" s="209" t="n">
+      <c r="N77" s="201" t="n">
         <f aca="false">SUM(N67:N76)</f>
         <v>0</v>
       </c>
-      <c r="O77" s="209" t="n">
+      <c r="O77" s="201" t="n">
         <f aca="false">SUM(O67:O76)</f>
         <v>0</v>
       </c>
-      <c r="P77" s="209" t="n">
+      <c r="P77" s="201" t="n">
         <f aca="false">SUM(P67:P76)</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="209" t="n">
+      <c r="Q77" s="201" t="n">
         <f aca="false">SUM(Q67:Q76)</f>
         <v>0</v>
       </c>
-      <c r="R77" s="209" t="n">
+      <c r="R77" s="201" t="n">
         <f aca="false">SUM(R67:R76)</f>
         <v>0</v>
       </c>
-      <c r="S77" s="204" t="n">
+      <c r="S77" s="196" t="n">
         <f aca="false">SUM(S67:S76)</f>
         <v>0</v>
       </c>
@@ -11323,13 +11288,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="74"/>
-      <c r="C80" s="190" t="s">
+      <c r="C80" s="176" t="s">
         <v>88</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
-      <c r="G80" s="190" t="s">
+      <c r="G80" s="176" t="s">
         <v>97</v>
       </c>
       <c r="H80" s="74"/>
@@ -11346,7 +11311,7 @@
       <c r="D81" s="17"/>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
-      <c r="G81" s="136" t="n">
+      <c r="G81" s="132" t="n">
         <v>0</v>
       </c>
       <c r="H81" s="74" t="n">
@@ -11409,7 +11374,7 @@
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
-      <c r="G82" s="208" t="n">
+      <c r="G82" s="200" t="n">
         <v>0</v>
       </c>
       <c r="H82" s="74" t="n">
@@ -11472,7 +11437,7 @@
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
-      <c r="G83" s="208" t="n">
+      <c r="G83" s="200" t="n">
         <v>0</v>
       </c>
       <c r="H83" s="74" t="n">
@@ -11535,7 +11500,7 @@
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
-      <c r="G84" s="208" t="n">
+      <c r="G84" s="200" t="n">
         <v>0</v>
       </c>
       <c r="H84" s="74" t="n">
@@ -11598,54 +11563,54 @@
       <c r="D85" s="49"/>
       <c r="E85" s="49"/>
       <c r="F85" s="49"/>
-      <c r="G85" s="136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" s="151" t="n">
+      <c r="G85" s="132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="147" t="n">
         <f aca="false">G85+H31-H57</f>
         <v>0</v>
       </c>
-      <c r="I85" s="152" t="n">
+      <c r="I85" s="148" t="n">
         <f aca="false">H85+I31-I57</f>
         <v>0</v>
       </c>
-      <c r="J85" s="152" t="n">
+      <c r="J85" s="148" t="n">
         <f aca="false">I85+J31-J57</f>
         <v>0</v>
       </c>
-      <c r="K85" s="152" t="n">
+      <c r="K85" s="148" t="n">
         <f aca="false">J85+K31-K57</f>
         <v>0</v>
       </c>
-      <c r="L85" s="152" t="n">
+      <c r="L85" s="148" t="n">
         <f aca="false">K85+L31-L57</f>
         <v>0</v>
       </c>
-      <c r="M85" s="152" t="n">
+      <c r="M85" s="148" t="n">
         <f aca="false">L85+M31-M57</f>
         <v>0</v>
       </c>
-      <c r="N85" s="152" t="n">
+      <c r="N85" s="148" t="n">
         <f aca="false">M85+N31-N57</f>
         <v>0</v>
       </c>
-      <c r="O85" s="152" t="n">
+      <c r="O85" s="148" t="n">
         <f aca="false">N85+O31-O57</f>
         <v>0</v>
       </c>
-      <c r="P85" s="152" t="n">
+      <c r="P85" s="148" t="n">
         <f aca="false">O85+P31-P57</f>
         <v>0</v>
       </c>
-      <c r="Q85" s="152" t="n">
+      <c r="Q85" s="148" t="n">
         <f aca="false">P85+Q31-Q57</f>
         <v>0</v>
       </c>
-      <c r="R85" s="152" t="n">
+      <c r="R85" s="148" t="n">
         <f aca="false">Q85+R31-R57</f>
         <v>0</v>
       </c>
-      <c r="S85" s="153" t="n">
+      <c r="S85" s="149" t="n">
         <f aca="false">R85+S31-S57</f>
         <v>0</v>
       </c>
@@ -11653,60 +11618,60 @@
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
-      <c r="D86" s="206" t="s">
+      <c r="D86" s="198" t="s">
         <v>98</v>
       </c>
-      <c r="E86" s="206"/>
-      <c r="F86" s="207"/>
-      <c r="G86" s="208" t="n">
+      <c r="E86" s="198"/>
+      <c r="F86" s="199"/>
+      <c r="G86" s="200" t="n">
         <f aca="false">SUM(G81:G85)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="203" t="n">
+      <c r="H86" s="195" t="n">
         <f aca="false">SUM(H81:H85)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="209" t="n">
+      <c r="I86" s="201" t="n">
         <f aca="false">SUM(I81:I85)</f>
         <v>0</v>
       </c>
-      <c r="J86" s="209" t="n">
+      <c r="J86" s="201" t="n">
         <f aca="false">SUM(J81:J85)</f>
         <v>0</v>
       </c>
-      <c r="K86" s="209" t="n">
+      <c r="K86" s="201" t="n">
         <f aca="false">SUM(K81:K85)</f>
         <v>0</v>
       </c>
-      <c r="L86" s="209" t="n">
+      <c r="L86" s="201" t="n">
         <f aca="false">SUM(L81:L85)</f>
         <v>0</v>
       </c>
-      <c r="M86" s="209" t="n">
+      <c r="M86" s="201" t="n">
         <f aca="false">SUM(M81:M85)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="209" t="n">
+      <c r="N86" s="201" t="n">
         <f aca="false">SUM(N81:N85)</f>
         <v>0</v>
       </c>
-      <c r="O86" s="209" t="n">
+      <c r="O86" s="201" t="n">
         <f aca="false">SUM(O81:O85)</f>
         <v>0</v>
       </c>
-      <c r="P86" s="209" t="n">
+      <c r="P86" s="201" t="n">
         <f aca="false">SUM(P81:P85)</f>
         <v>0</v>
       </c>
-      <c r="Q86" s="209" t="n">
+      <c r="Q86" s="201" t="n">
         <f aca="false">SUM(Q81:Q85)</f>
         <v>0</v>
       </c>
-      <c r="R86" s="209" t="n">
+      <c r="R86" s="201" t="n">
         <f aca="false">SUM(R81:R85)</f>
         <v>0</v>
       </c>
-      <c r="S86" s="204" t="n">
+      <c r="S86" s="196" t="n">
         <f aca="false">SUM(S81:S85)</f>
         <v>0</v>
       </c>
